--- a/Praca Inżynierska/dane/excel/wspólne.xlsx
+++ b/Praca Inżynierska/dane/excel/wspólne.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comarch\Documents\NoweRepo\nowe\Projekt_inz\Praca Inżynierska\dane\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projekt_inz\Projekt_inz\Praca Inżynierska\dane\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,9 +32,8 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
   </externalReferences>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -222,9 +221,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -234,6 +230,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -504,31 +503,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.17294487601566294</c:v>
+                  <c:v>0.16997693490638127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64660804430098695</c:v>
+                  <c:v>0.66128993692461202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71556967415843487</c:v>
+                  <c:v>0.71137665540808914</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93272717300044106</c:v>
+                  <c:v>0.92375504128057984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58756256043011146</c:v>
+                  <c:v>0.59467912278591317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0550639286694299</c:v>
+                  <c:v>2.0590772977661662</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6245315294501037</c:v>
+                  <c:v>1.621570103687106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6667689032869581</c:v>
+                  <c:v>1.597095654494481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.577689918139709</c:v>
+                  <c:v>2.5908660911635519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,31 +607,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.16895235962755151</c:v>
+                  <c:v>0.17053204104998487</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59707996081298964</c:v>
+                  <c:v>0.57053980577394137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67773788331705076</c:v>
+                  <c:v>0.66047356532940471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93613150323705241</c:v>
+                  <c:v>0.93900945827491167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59796058329480894</c:v>
+                  <c:v>0.56480708337344765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.054995490797368</c:v>
+                  <c:v>2.1196477475102982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5814679154740872</c:v>
+                  <c:v>1.5722639893963664</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5152469552494383</c:v>
+                  <c:v>1.6015065721610517</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1998219316895344</c:v>
+                  <c:v>2.2149248816133302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475275248"/>
-        <c:axId val="475273680"/>
+        <c:axId val="299120544"/>
+        <c:axId val="299120936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475275248"/>
+        <c:axId val="299120544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,12 +1185,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475273680"/>
+        <c:crossAx val="299120936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475273680"/>
+        <c:axId val="299120936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1303,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475275248"/>
+        <c:crossAx val="299120544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1425,7 +1424,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$9</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1458,7 +1457,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$W$3:$W$10</c:f>
+              <c:f>'[15]moc-30stat'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1511,7 +1510,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1610,7 +1609,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$W$3:$W$32</c:f>
+              <c:f>'[14]moc-20stat'!$W$3:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1729,7 +1728,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1831,7 +1830,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$W$3:$W$33</c:f>
+              <c:f>'[13]moc-16stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1953,7 +1952,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2055,7 +2054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$W$3:$W$33</c:f>
+              <c:f>'[12]moc-12stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2177,7 +2176,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2279,7 +2278,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$W$3:$W$33</c:f>
+              <c:f>'[11]moc-8stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2401,7 +2400,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2503,7 +2502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$W$3:$W$33</c:f>
+              <c:f>'[10]moc-4stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2627,7 +2626,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2729,7 +2728,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$W$3:$W$33</c:f>
+              <c:f>[9]moc0stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2853,7 +2852,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2955,7 +2954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$W$3:$W$33</c:f>
+              <c:f>[8]moc4stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3065,11 +3064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455029808"/>
-        <c:axId val="455030200"/>
+        <c:axId val="319409216"/>
+        <c:axId val="319409608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455029808"/>
+        <c:axId val="319409216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3126,12 +3125,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455030200"/>
+        <c:crossAx val="319409608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455030200"/>
+        <c:axId val="319409608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3189,7 +3188,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455029808"/>
+        <c:crossAx val="319409216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3203,7 +3202,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3310,7 +3308,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$9</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3343,7 +3341,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$W$3:$W$10</c:f>
+              <c:f>'[15]moc-30stat'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3396,7 +3394,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3495,7 +3493,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$W$3:$W$32</c:f>
+              <c:f>'[14]moc-20stat'!$W$3:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3614,7 +3612,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3716,7 +3714,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$W$3:$W$33</c:f>
+              <c:f>'[13]moc-16stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3840,7 +3838,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3942,7 +3940,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$W$3:$W$33</c:f>
+              <c:f>'[12]moc-12stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4067,7 +4065,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4169,7 +4167,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$W$3:$W$33</c:f>
+              <c:f>'[11]moc-8stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4294,7 +4292,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4396,7 +4394,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$W$3:$W$33</c:f>
+              <c:f>'[10]moc-4stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4521,7 +4519,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4623,7 +4621,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$W$3:$W$33</c:f>
+              <c:f>[9]moc0stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4748,7 +4746,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4850,7 +4848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$W$3:$W$33</c:f>
+              <c:f>[8]moc4stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -4972,7 +4970,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5074,7 +5072,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$F$2:$F$32</c:f>
+              <c:f>[8]moc4stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5198,7 +5196,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5300,7 +5298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$F$2:$F$32</c:f>
+              <c:f>[9]moc0stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5422,7 +5420,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5524,7 +5522,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$F$2:$F$32</c:f>
+              <c:f>'[10]moc-4stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5646,7 +5644,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5748,7 +5746,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$F$2:$F$32</c:f>
+              <c:f>'[11]moc-8stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5872,7 +5870,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -5974,7 +5972,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$F$2:$F$32</c:f>
+              <c:f>'[12]moc-12stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6098,7 +6096,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6200,7 +6198,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$F$2:$F$32</c:f>
+              <c:f>'[13]moc-16stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -6324,7 +6322,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6423,7 +6421,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$F$2:$F$31</c:f>
+              <c:f>'[14]moc-20stat'!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -6544,7 +6542,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$7</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6571,7 +6569,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$F$2:$F$7</c:f>
+              <c:f>'[15]moc-30stat'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6606,11 +6604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455030984"/>
-        <c:axId val="455031376"/>
+        <c:axId val="319410392"/>
+        <c:axId val="319410784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455030984"/>
+        <c:axId val="319410392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -6658,7 +6656,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6725,12 +6722,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455031376"/>
+        <c:crossAx val="319410784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455031376"/>
+        <c:axId val="319410784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -6777,7 +6774,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6844,7 +6840,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455030984"/>
+        <c:crossAx val="319410392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6974,7 +6970,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7224,11 +7219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="454352040"/>
-        <c:axId val="342488432"/>
+        <c:axId val="321842888"/>
+        <c:axId val="321843280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="454352040"/>
+        <c:axId val="321842888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7347,13 +7342,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342488432"/>
+        <c:crossAx val="321843280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342488432"/>
+        <c:axId val="321843280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-50"/>
@@ -7474,7 +7469,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="454352040"/>
+        <c:crossAx val="321842888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7488,7 +7483,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7595,7 +7589,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7845,11 +7838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342489216"/>
-        <c:axId val="342489608"/>
+        <c:axId val="321844064"/>
+        <c:axId val="321844456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342489216"/>
+        <c:axId val="321844064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7897,7 +7890,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7961,12 +7953,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342489608"/>
+        <c:crossAx val="321844456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342489608"/>
+        <c:axId val="321844456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8017,7 +8009,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8081,7 +8072,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342489216"/>
+        <c:crossAx val="321844064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8095,7 +8086,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8210,7 +8200,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8444,11 +8433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342490392"/>
-        <c:axId val="342490784"/>
+        <c:axId val="321845240"/>
+        <c:axId val="321845632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342490392"/>
+        <c:axId val="321845240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8496,7 +8485,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8560,13 +8548,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342490784"/>
+        <c:crossAx val="321845632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342490784"/>
+        <c:axId val="321845632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8612,7 +8600,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8676,7 +8663,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342490392"/>
+        <c:crossAx val="321845240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8690,7 +8677,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8805,7 +8791,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9045,11 +9030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342491568"/>
-        <c:axId val="342491960"/>
+        <c:axId val="321846416"/>
+        <c:axId val="320308760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342491568"/>
+        <c:axId val="321846416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -9097,7 +9082,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9161,13 +9145,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342491960"/>
+        <c:crossAx val="320308760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342491960"/>
+        <c:axId val="320308760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9218,7 +9202,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9282,7 +9265,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342491568"/>
+        <c:crossAx val="321846416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9296,7 +9279,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9408,7 +9390,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9476,7 +9457,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9578,7 +9559,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$F$2:$F$32</c:f>
+              <c:f>[8]moc4stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9718,7 +9699,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9820,7 +9801,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$F$2:$F$32</c:f>
+              <c:f>[9]moc0stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -9954,7 +9935,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10056,7 +10037,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$F$2:$F$32</c:f>
+              <c:f>'[10]moc-4stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10190,7 +10171,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10292,7 +10273,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$F$2:$F$32</c:f>
+              <c:f>'[11]moc-8stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10432,7 +10413,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10534,7 +10515,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$F$2:$F$32</c:f>
+              <c:f>'[12]moc-12stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10674,7 +10655,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10776,7 +10757,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$F$2:$F$32</c:f>
+              <c:f>'[13]moc-16stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -10916,7 +10897,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -11015,7 +10996,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$F$2:$F$31</c:f>
+              <c:f>'[14]moc-20stat'!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -11152,7 +11133,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$7</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11179,7 +11160,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$F$2:$F$7</c:f>
+              <c:f>'[15]moc-30stat'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -11214,11 +11195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342492744"/>
-        <c:axId val="342493136"/>
+        <c:axId val="320309544"/>
+        <c:axId val="320309936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342492744"/>
+        <c:axId val="320309544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -11266,7 +11247,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11333,12 +11313,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342493136"/>
+        <c:crossAx val="320309936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342493136"/>
+        <c:axId val="320309936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-50"/>
@@ -11385,7 +11365,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11452,7 +11431,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342492744"/>
+        <c:crossAx val="320309544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11582,7 +11561,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$9</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11615,7 +11594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$W$3:$W$10</c:f>
+              <c:f>'[15]moc-30stat'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -11668,7 +11647,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -11767,7 +11746,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$W$3:$W$32</c:f>
+              <c:f>'[14]moc-20stat'!$W$3:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -11886,7 +11865,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -11988,7 +11967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$W$3:$W$33</c:f>
+              <c:f>'[13]moc-16stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12110,7 +12089,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12212,7 +12191,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$W$3:$W$33</c:f>
+              <c:f>'[12]moc-12stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12334,7 +12313,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12436,7 +12415,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$W$3:$W$33</c:f>
+              <c:f>'[11]moc-8stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12558,7 +12537,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12660,7 +12639,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$W$3:$W$33</c:f>
+              <c:f>'[10]moc-4stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12784,7 +12763,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -12886,7 +12865,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$W$3:$W$33</c:f>
+              <c:f>[9]moc0stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -13010,7 +12989,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -13112,7 +13091,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$W$3:$W$33</c:f>
+              <c:f>[8]moc4stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -13222,11 +13201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342493920"/>
-        <c:axId val="342494312"/>
+        <c:axId val="320310720"/>
+        <c:axId val="320311112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342493920"/>
+        <c:axId val="320310720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13283,12 +13262,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342494312"/>
+        <c:crossAx val="320311112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342494312"/>
+        <c:axId val="320311112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -13346,7 +13325,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342493920"/>
+        <c:crossAx val="320310720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13360,7 +13339,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13467,7 +13445,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$9</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13500,7 +13478,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$W$3:$W$10</c:f>
+              <c:f>'[15]moc-30stat'!$W$3:$W$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -13553,7 +13531,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -13652,7 +13630,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$W$3:$W$32</c:f>
+              <c:f>'[14]moc-20stat'!$W$3:$W$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -13771,7 +13749,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -13873,7 +13851,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$W$3:$W$33</c:f>
+              <c:f>'[13]moc-16stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -13997,7 +13975,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14099,7 +14077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$W$3:$W$33</c:f>
+              <c:f>'[12]moc-12stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14224,7 +14202,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14326,7 +14304,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$W$3:$W$33</c:f>
+              <c:f>'[11]moc-8stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14451,7 +14429,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14553,7 +14531,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$W$3:$W$33</c:f>
+              <c:f>'[10]moc-4stat'!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14678,7 +14656,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14780,7 +14758,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$W$3:$W$33</c:f>
+              <c:f>[9]moc0stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -14905,7 +14883,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15007,7 +14985,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$W$3:$W$33</c:f>
+              <c:f>[8]moc4stat!$W$3:$W$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15129,7 +15107,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15231,7 +15209,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$F$2:$F$32</c:f>
+              <c:f>[8]moc4stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15355,7 +15333,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15457,7 +15435,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$F$2:$F$32</c:f>
+              <c:f>[9]moc0stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15579,7 +15557,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15681,7 +15659,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$F$2:$F$32</c:f>
+              <c:f>'[10]moc-4stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15803,7 +15781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -15905,7 +15883,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$F$2:$F$32</c:f>
+              <c:f>'[11]moc-8stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -16029,7 +16007,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -16131,7 +16109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$F$2:$F$32</c:f>
+              <c:f>'[12]moc-12stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -16255,7 +16233,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -16357,7 +16335,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$F$2:$F$32</c:f>
+              <c:f>'[13]moc-16stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -16481,7 +16459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -16580,7 +16558,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$F$2:$F$31</c:f>
+              <c:f>'[14]moc-20stat'!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -16701,7 +16679,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$7</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -16728,7 +16706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$F$2:$F$7</c:f>
+              <c:f>'[15]moc-30stat'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -16763,11 +16741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342495096"/>
-        <c:axId val="342495488"/>
+        <c:axId val="320311896"/>
+        <c:axId val="320312288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342495096"/>
+        <c:axId val="320311896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -16815,7 +16793,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16882,12 +16859,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342495488"/>
+        <c:crossAx val="320312288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342495488"/>
+        <c:axId val="320312288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -16934,7 +16911,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -17001,7 +16977,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342495096"/>
+        <c:crossAx val="320311896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17143,7 +17119,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$E$2:$E$32</c:f>
+              <c:f>[8]moc4stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17245,7 +17221,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]moc4stat!$F$2:$F$32</c:f>
+              <c:f>[8]moc4stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17385,7 +17361,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$E$2:$E$32</c:f>
+              <c:f>[9]moc0stat!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17487,7 +17463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[4]moc0stat!$F$2:$F$32</c:f>
+              <c:f>[9]moc0stat!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17621,7 +17597,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$E$2:$E$32</c:f>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17723,7 +17699,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[5]moc-4stat'!$F$2:$F$32</c:f>
+              <c:f>'[10]moc-4stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17857,7 +17833,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$E$2:$E$32</c:f>
+              <c:f>'[11]moc-8stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -17959,7 +17935,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[6]moc-8stat'!$F$2:$F$32</c:f>
+              <c:f>'[11]moc-8stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -18099,7 +18075,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$E$2:$E$32</c:f>
+              <c:f>'[12]moc-12stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -18201,7 +18177,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[7]moc-12stat'!$F$2:$F$32</c:f>
+              <c:f>'[12]moc-12stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -18341,7 +18317,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$E$2:$E$32</c:f>
+              <c:f>'[13]moc-16stat'!$E$2:$E$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -18443,7 +18419,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[8]moc-16stat'!$F$2:$F$32</c:f>
+              <c:f>'[13]moc-16stat'!$F$2:$F$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -18583,7 +18559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$E$2:$E$31</c:f>
+              <c:f>'[14]moc-20stat'!$E$2:$E$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -18682,7 +18658,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[9]moc-20stat'!$F$2:$F$31</c:f>
+              <c:f>'[14]moc-20stat'!$F$2:$F$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -18819,7 +18795,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$E$2:$E$7</c:f>
+              <c:f>'[15]moc-30stat'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -18846,7 +18822,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'[10]moc-30stat'!$F$2:$F$7</c:f>
+              <c:f>'[15]moc-30stat'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -18881,11 +18857,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455028632"/>
-        <c:axId val="455029024"/>
+        <c:axId val="319408040"/>
+        <c:axId val="319408432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455028632"/>
+        <c:axId val="319408040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -18933,7 +18909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19000,12 +18975,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455029024"/>
+        <c:crossAx val="319408432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455029024"/>
+        <c:axId val="319408432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -19052,7 +19027,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19119,7 +19093,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455028632"/>
+        <c:crossAx val="319408040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -25674,556 +25648,102 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc-4"/>
+      <sheetName val="moc4"/>
+      <sheetName val="Określanie odległości"/>
       <sheetName val="Symulacja 1D"/>
-      <sheetName val="Określanie odległości"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="22">
-          <cell r="K22">
-            <v>1</v>
-          </cell>
-        </row>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
         <row r="26">
           <cell r="S26">
-            <v>0.22977683632714063</v>
+            <v>1.263143050722322</v>
           </cell>
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.16895235962755151</v>
+            <v>0.41027396010385908</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>0.90452856637155699</v>
+            <v>0.99992120117833516</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.59707996081298964</v>
+            <v>0.60457886120960791</v>
           </cell>
         </row>
         <row r="57">
           <cell r="S57">
-            <v>1.3473230012292312</v>
+            <v>1.4953657464095205</v>
           </cell>
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.67773788331705076</v>
+            <v>1.0308939784338185</v>
           </cell>
         </row>
         <row r="73">
           <cell r="S73">
-            <v>1.3473230012292312</v>
+            <v>1.3241425104230853</v>
           </cell>
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.93613150323705241</v>
+            <v>0.74004139884578657</v>
           </cell>
         </row>
         <row r="89">
           <cell r="S89">
-            <v>0.913235268668255</v>
+            <v>1.9112868500853688</v>
           </cell>
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.59796058329480894</v>
+            <v>0.81457586539492954</v>
           </cell>
         </row>
         <row r="104">
           <cell r="S104">
-            <v>3.7605582698974862</v>
+            <v>3.7378248027189311</v>
           </cell>
         </row>
         <row r="106">
           <cell r="S106">
-            <v>2.054995490797368</v>
+            <v>1.9318642312619458</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>3.7605582698974862</v>
+            <v>4.2751477595905714</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.5814679154740872</v>
+            <v>2.1459610487677274</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.7201693566275047</v>
+            <v>5.7964821724025022</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.5152469552494383</v>
+            <v>2.0000391056835194</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>4.8355562976279423</v>
+            <v>5.3737615914035173</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.1998219316895344</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="M2">
-            <v>0.3</v>
-          </cell>
-          <cell r="AC2">
-            <v>0.33119742548806935</v>
-          </cell>
-          <cell r="AD2">
-            <v>0.23478287789798846</v>
-          </cell>
-          <cell r="AJ2">
-            <v>0.2717142901899815</v>
-          </cell>
-          <cell r="AL2">
-            <v>0.33900636029263853</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="M3">
-            <v>0.5</v>
-          </cell>
-          <cell r="AC3">
-            <v>0.71518945245894938</v>
-          </cell>
-          <cell r="AD3">
-            <v>0.53185025859943169</v>
-          </cell>
-          <cell r="AJ3">
-            <v>0.64367363372716202</v>
-          </cell>
-          <cell r="AL3">
-            <v>0.57104229009037721</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="M4">
-            <v>0.75</v>
-          </cell>
-          <cell r="AC4">
-            <v>1.2314638753575327</v>
-          </cell>
-          <cell r="AD4">
-            <v>0.94724953416546942</v>
-          </cell>
-          <cell r="AJ4">
-            <v>0.99070040355363187</v>
-          </cell>
-          <cell r="AL4">
-            <v>0.96189728355000315</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>1</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.98194712588099109</v>
-          </cell>
-          <cell r="AD5">
-            <v>0.74476022253091068</v>
-          </cell>
-          <cell r="AJ5">
-            <v>0.74317528758997131</v>
-          </cell>
-          <cell r="AL5">
-            <v>0.84433266591132672</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>1.5</v>
-          </cell>
-          <cell r="AC6">
-            <v>1.0913827975249442</v>
-          </cell>
-          <cell r="AD6">
-            <v>0.83321837543123645</v>
-          </cell>
-          <cell r="AJ6">
-            <v>0.99070040355363187</v>
-          </cell>
-          <cell r="AL6">
-            <v>0.84433266591132672</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7">
-            <v>2</v>
-          </cell>
-          <cell r="AC7">
-            <v>1.665455784670903</v>
-          </cell>
-          <cell r="AD7">
-            <v>1.305353997541538</v>
-          </cell>
-          <cell r="AJ7">
-            <v>1.3206672853509098</v>
-          </cell>
-          <cell r="AL7">
-            <v>1.248414807618013</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>2.5</v>
-          </cell>
-          <cell r="AC8">
-            <v>4.1823750146559338</v>
-          </cell>
-          <cell r="AD8">
-            <v>3.4712285414924549</v>
-          </cell>
-          <cell r="AJ8">
-            <v>3.1285756443359514</v>
-          </cell>
-          <cell r="AL8">
-            <v>3.1093145325338085</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="M9">
-            <v>3</v>
-          </cell>
-          <cell r="AC9">
-            <v>12.031311730152694</v>
-          </cell>
-          <cell r="AD9">
-            <v>10.663674226464288</v>
-          </cell>
-          <cell r="AJ9">
-            <v>9.8798643133915292</v>
-          </cell>
-          <cell r="AL9">
-            <v>7.7440901879978936</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="M10">
-            <v>3.5</v>
-          </cell>
-          <cell r="AC10">
-            <v>4.1197171545380229</v>
-          </cell>
-          <cell r="AD10">
-            <v>3.416016917938105</v>
-          </cell>
-          <cell r="AJ10">
-            <v>2.7096994302790565</v>
-          </cell>
-          <cell r="AL10">
-            <v>2.3957110924159655</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11">
-            <v>4</v>
-          </cell>
-          <cell r="AC11">
-            <v>10.502987184781228</v>
-          </cell>
-          <cell r="AD11">
-            <v>9.2307738820008751</v>
-          </cell>
-          <cell r="AJ11">
-            <v>4.1705923288204847</v>
-          </cell>
-          <cell r="AL11">
-            <v>6.7975951541920629</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="M12">
-            <v>4.5</v>
-          </cell>
-          <cell r="AC12">
-            <v>2.6996744521918754</v>
-          </cell>
-          <cell r="AD12">
-            <v>2.180472172430326</v>
-          </cell>
-          <cell r="AJ12">
-            <v>2.0326848017388564</v>
-          </cell>
-          <cell r="AL12">
-            <v>2.1029034679748708</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="M13">
-            <v>5</v>
-          </cell>
-          <cell r="AC13">
-            <v>3.0461828522855621</v>
-          </cell>
-          <cell r="AD13">
-            <v>2.478883460205028</v>
-          </cell>
-          <cell r="AJ13">
-            <v>2.3469053771314847</v>
-          </cell>
-          <cell r="AL13">
-            <v>2.1029034679748708</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="M14">
-            <v>5.5</v>
-          </cell>
-          <cell r="AC14">
-            <v>4.5788498327720895</v>
-          </cell>
-          <cell r="AD14">
-            <v>3.8217509215751315</v>
-          </cell>
-          <cell r="AJ14">
-            <v>3.6122034248367187</v>
-          </cell>
-          <cell r="AL14">
-            <v>2.3957110924159655</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="M15">
-            <v>6</v>
-          </cell>
-          <cell r="AC15">
-            <v>15</v>
-          </cell>
-          <cell r="AD15">
-            <v>15</v>
-          </cell>
-          <cell r="AJ15">
-            <v>15</v>
-          </cell>
-          <cell r="AL15">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="M16">
-            <v>6.5</v>
-          </cell>
-          <cell r="AC16">
-            <v>15</v>
-          </cell>
-          <cell r="AD16">
-            <v>14.46130803468613</v>
-          </cell>
-          <cell r="AJ16">
-            <v>13.170493860302299</v>
-          </cell>
-          <cell r="AL16">
-            <v>10.050799630648259</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="M17">
-            <v>7</v>
-          </cell>
-          <cell r="AC17">
-            <v>3.1872980987261936</v>
-          </cell>
-          <cell r="AD17">
-            <v>2.6010319997084705</v>
-          </cell>
-          <cell r="AJ17">
-            <v>2.0326848017388564</v>
-          </cell>
-          <cell r="AL17">
-            <v>2.1029034679748708</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="M18">
-            <v>7.5</v>
-          </cell>
-          <cell r="AC18">
-            <v>11.32636866000751</v>
-          </cell>
-          <cell r="AD18">
-            <v>10.001245507987775</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="M19">
-            <v>8</v>
-          </cell>
-          <cell r="AC19">
-            <v>15</v>
-          </cell>
-          <cell r="AD19">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="M20">
-            <v>8.5</v>
-          </cell>
-          <cell r="AC20">
-            <v>9.1688040571016298</v>
-          </cell>
-          <cell r="AD20">
-            <v>7.9904153719520705</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="M21">
-            <v>9</v>
-          </cell>
-          <cell r="AC21">
-            <v>9.4498264977693047</v>
-          </cell>
-          <cell r="AD21">
-            <v>8.2507940453586901</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="M22">
-            <v>9.5</v>
-          </cell>
-          <cell r="AC22">
-            <v>8.5022688561723658</v>
-          </cell>
-          <cell r="AD22">
-            <v>7.3748532083173837</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="M23">
-            <v>10</v>
-          </cell>
-          <cell r="AC23">
-            <v>6.6779888452941503</v>
-          </cell>
-          <cell r="AD23">
-            <v>5.7061378324527832</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="M24">
-            <v>10.5</v>
-          </cell>
-          <cell r="AC24">
-            <v>15</v>
-          </cell>
-          <cell r="AD24">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="M25">
-            <v>11</v>
-          </cell>
-          <cell r="AC25">
-            <v>15</v>
-          </cell>
-          <cell r="AD25">
-            <v>13.782182343058999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="M26">
-            <v>11.5</v>
-          </cell>
-          <cell r="AC26">
-            <v>9.7394622332207881</v>
-          </cell>
-          <cell r="AD26">
-            <v>8.5196575159140302</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="M27">
-            <v>12</v>
-          </cell>
-          <cell r="AC27">
-            <v>7.4222348186808693</v>
-          </cell>
-          <cell r="AD27">
-            <v>6.3838786644458505</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="M28">
-            <v>12.5</v>
-          </cell>
-          <cell r="AC28">
-            <v>11.851065758717512</v>
-          </cell>
-          <cell r="AD28">
-            <v>10.494063162237262</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="M29">
-            <v>13</v>
-          </cell>
-          <cell r="AC29">
-            <v>10.345637664583199</v>
-          </cell>
-          <cell r="AD29">
-            <v>9.0839538133720019</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="M30">
-            <v>13.5</v>
-          </cell>
-          <cell r="AC30">
-            <v>10.190645461505648</v>
-          </cell>
-          <cell r="AD30">
-            <v>8.9394689912596128</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="M31">
-            <v>14</v>
-          </cell>
-          <cell r="AC31">
-            <v>8.7628620949736309</v>
-          </cell>
-          <cell r="AD31">
-            <v>7.6151729420937668</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="M32">
-            <v>14.5</v>
-          </cell>
-          <cell r="AC32">
-            <v>15</v>
-          </cell>
-          <cell r="AD32">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="M33">
-            <v>15</v>
-          </cell>
-          <cell r="AC33">
-            <v>8.2494252356319944</v>
-          </cell>
-          <cell r="AD33">
-            <v>7.1421174880468641</v>
+            <v>1.9524462234226341</v>
           </cell>
         </row>
       </sheetData>
@@ -26236,16 +25756,21 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc-30stat"/>
+      <sheetName val="moc-4stat"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="F1" t="str">
+            <v>RSSI po odsianiu</v>
+          </cell>
+        </row>
         <row r="2">
           <cell r="E2">
             <v>0.3</v>
           </cell>
           <cell r="F2">
-            <v>-88</v>
+            <v>-59.310344827586206</v>
           </cell>
         </row>
         <row r="3">
@@ -26253,10 +25778,10 @@
             <v>0.5</v>
           </cell>
           <cell r="F3">
-            <v>-93.52</v>
+            <v>-64.45</v>
           </cell>
           <cell r="W3">
-            <v>-89.714327819653477</v>
+            <v>-60.828821619399712</v>
           </cell>
         </row>
         <row r="4">
@@ -26264,10 +25789,10 @@
             <v>0.75</v>
           </cell>
           <cell r="F4">
-            <v>-96.692307692307693</v>
+            <v>-68</v>
           </cell>
           <cell r="W4">
-            <v>-92.115208251359832</v>
+            <v>-64.014841034836437</v>
           </cell>
         </row>
         <row r="5">
@@ -26275,10 +25800,10 @@
             <v>1</v>
           </cell>
           <cell r="F5">
-            <v>-94.892857142857139</v>
+            <v>-66.620689655172413</v>
           </cell>
           <cell r="W5">
-            <v>-94.020894259473138</v>
+            <v>-66.543726914113591</v>
           </cell>
         </row>
         <row r="6">
@@ -26286,10 +25811,10 @@
             <v>1.5</v>
           </cell>
           <cell r="F6">
-            <v>-95</v>
+            <v>-67.285714285714292</v>
           </cell>
           <cell r="W6">
-            <v>-95.373000000000005</v>
+            <v>-68.337999999999994</v>
           </cell>
         </row>
         <row r="7">
@@ -26297,31 +25822,290 @@
             <v>2</v>
           </cell>
           <cell r="F7">
-            <v>-98.4</v>
+            <v>-70</v>
           </cell>
           <cell r="W7">
-            <v>-97.278686008113311</v>
+            <v>-70.866885879277149</v>
           </cell>
         </row>
         <row r="8">
           <cell r="E8">
-            <v>3.5</v>
+            <v>2.5</v>
+          </cell>
+          <cell r="F8">
+            <v>-76</v>
           </cell>
           <cell r="W8">
-            <v>-98.630791748640178</v>
+            <v>-72.661158965163551</v>
           </cell>
         </row>
         <row r="9">
           <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>-83.129032258064512</v>
+          </cell>
+          <cell r="W9">
+            <v>-74.052905294713881</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>3.5</v>
+          </cell>
+          <cell r="F10">
+            <v>-76.617647058823536</v>
+          </cell>
+          <cell r="W10">
+            <v>-75.190044844440706</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>-81.196078431372555</v>
+          </cell>
+          <cell r="W11">
+            <v>-76.151482634525806</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
             <v>4.5</v>
           </cell>
-          <cell r="W9">
-            <v>-101.26098595194345</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="W10">
-            <v>-102.44216376486678</v>
+          <cell r="F12">
+            <v>-73.41935483870968</v>
+          </cell>
+          <cell r="W12">
+            <v>-76.984317930327109</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>5</v>
+          </cell>
+          <cell r="F13">
+            <v>-74</v>
+          </cell>
+          <cell r="W13">
+            <v>-77.718930723717875</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>5.5</v>
+          </cell>
+          <cell r="F14">
+            <v>-76.766666666666666</v>
+          </cell>
+          <cell r="W14">
+            <v>-78.376064259877438</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>-83.60526315789474</v>
+          </cell>
+          <cell r="W15">
+            <v>-78.970513851318543</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>6.5</v>
+          </cell>
+          <cell r="F16">
+            <v>-84.407407407407405</v>
+          </cell>
+          <cell r="W16">
+            <v>-79.513203809604278</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>-73.892857142857139</v>
+          </cell>
+          <cell r="W17">
+            <v>-80.012430177365403</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>7.5</v>
+          </cell>
+          <cell r="F18">
+            <v>-83.822916666666671</v>
+          </cell>
+          <cell r="W18">
+            <v>-80.474641599689363</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>8</v>
+          </cell>
+          <cell r="F19">
+            <v>-91.464646464646464</v>
+          </cell>
+          <cell r="W19">
+            <v>-80.904950139154593</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>8.5</v>
+          </cell>
+          <cell r="F20">
+            <v>-81.431818181818187</v>
+          </cell>
+          <cell r="W20">
+            <v>-81.307476895490666</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>9</v>
+          </cell>
+          <cell r="F21">
+            <v>-82.359375</v>
+          </cell>
+          <cell r="W21">
+            <v>-81.685592661760751</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>9.5</v>
+          </cell>
+          <cell r="F22">
+            <v>-80.696629213483149</v>
+          </cell>
+          <cell r="W22">
+            <v>-82.042089688881433</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>10</v>
+          </cell>
+          <cell r="F23">
+            <v>-78.464788732394368</v>
+          </cell>
+          <cell r="W23">
+            <v>-82.379306947945011</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>10.5</v>
+          </cell>
+          <cell r="F24">
+            <v>-87</v>
+          </cell>
+          <cell r="W24">
+            <v>-82.699223225040996</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>11</v>
+          </cell>
+          <cell r="F25">
+            <v>-84.660714285714292</v>
+          </cell>
+          <cell r="W25">
+            <v>-83.003527478966532</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>11.5</v>
+          </cell>
+          <cell r="F26">
+            <v>-81.5</v>
+          </cell>
+          <cell r="W26">
+            <v>-83.293672816482101</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>12</v>
+          </cell>
+          <cell r="F27">
+            <v>-79.828947368421055</v>
+          </cell>
+          <cell r="W27">
+            <v>-83.570918459637113</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>12.5</v>
+          </cell>
+          <cell r="F28">
+            <v>-84.109589041095887</v>
+          </cell>
+          <cell r="W28">
+            <v>-83.836362774767821</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>13</v>
+          </cell>
+          <cell r="F29">
+            <v>-82.128205128205124</v>
+          </cell>
+          <cell r="W29">
+            <v>-84.090969554591311</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>13.5</v>
+          </cell>
+          <cell r="F30">
+            <v>-82</v>
+          </cell>
+          <cell r="W30">
+            <v>-84.33558914252896</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>14</v>
+          </cell>
+          <cell r="F31">
+            <v>-81</v>
+          </cell>
+          <cell r="W31">
+            <v>-84.570975568158588</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>14.5</v>
+          </cell>
+          <cell r="F32">
+            <v>-89.075757575757578</v>
+          </cell>
+          <cell r="W32">
+            <v>-84.797800564852921</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>-85.016665126516386</v>
           </cell>
         </row>
       </sheetData>
@@ -26334,105 +26118,356 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc4"/>
-      <sheetName val="Określanie odległości"/>
-      <sheetName val="Symulacja 1D"/>
+      <sheetName val="moc-8stat"/>
+      <sheetName val="Arkusz1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0.3</v>
+          </cell>
+          <cell r="F2">
+            <v>-62.5757575757575</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>-68</v>
+          </cell>
+          <cell r="W3">
+            <v>-64.684363280572015</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.75</v>
+          </cell>
+          <cell r="F4">
+            <v>-71.777799999999999</v>
+          </cell>
+          <cell r="W4">
+            <v>-67.826451692364756</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>-70</v>
+          </cell>
+          <cell r="W5">
+            <v>-70.320467572344526</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1.5</v>
+          </cell>
+          <cell r="F6">
+            <v>-70.555599999999998</v>
+          </cell>
+          <cell r="W6">
+            <v>-72.09</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+          <cell r="F7">
+            <v>-73</v>
+          </cell>
+          <cell r="W7">
+            <v>-74.584015879979773</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>2.5</v>
+          </cell>
+          <cell r="F8">
+            <v>-80</v>
+          </cell>
+          <cell r="W8">
+            <v>-76.353548307635251</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>-86.791700000000006</v>
+          </cell>
+          <cell r="W9">
+            <v>-77.726104291772501</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>3.5</v>
+          </cell>
+          <cell r="F10">
+            <v>-81.5</v>
+          </cell>
+          <cell r="W10">
+            <v>-78.847564187615021</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>-85.846199999999996</v>
+          </cell>
+          <cell r="W11">
+            <v>-79.795745019234943</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>4.5</v>
+          </cell>
+          <cell r="F12">
+            <v>-76.7667</v>
+          </cell>
+          <cell r="W12">
+            <v>-80.617096615270498</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>5</v>
+          </cell>
+          <cell r="F13">
+            <v>-77.964299999999994</v>
+          </cell>
+          <cell r="W13">
+            <v>-81.341580067594791</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>5.5</v>
+          </cell>
+          <cell r="F14">
+            <v>-80.323499999999996</v>
+          </cell>
+          <cell r="W14">
+            <v>-81.989652599407748</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>-92.888900000000007</v>
+          </cell>
+          <cell r="W15">
+            <v>-82.575905515385671</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>6.5</v>
+          </cell>
+          <cell r="F16">
+            <v>-87.391304347826093</v>
+          </cell>
+          <cell r="W16">
+            <v>-83.111112495250268</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>-77.916700000000006</v>
+          </cell>
+          <cell r="W17">
+            <v>-83.603455190151465</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>7.5</v>
+          </cell>
+          <cell r="F18">
+            <v>-87.175700000000006</v>
+          </cell>
+          <cell r="W18">
+            <v>-84.05929332687019</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>8</v>
+          </cell>
+          <cell r="F19">
+            <v>-94.633300000000006</v>
+          </cell>
+          <cell r="W19">
+            <v>-84.483668479387518</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>8.5</v>
+          </cell>
+          <cell r="F20">
+            <v>-84.464299999999994</v>
+          </cell>
+          <cell r="W20">
+            <v>-84.880644922905745</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>9</v>
+          </cell>
+          <cell r="F21">
+            <v>-84.967200000000005</v>
+          </cell>
+          <cell r="W21">
+            <v>-85.253546971699606</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>9.5</v>
+          </cell>
+          <cell r="F22">
+            <v>-83.536799999999999</v>
+          </cell>
+          <cell r="W22">
+            <v>-85.605128375230038</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>10</v>
+          </cell>
+          <cell r="F23">
+            <v>-81.675700000000006</v>
+          </cell>
+          <cell r="W23">
+            <v>-85.937695853264358</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>10.5</v>
+          </cell>
+          <cell r="F24">
+            <v>-90.476200000000006</v>
+          </cell>
+          <cell r="W24">
+            <v>-86.253200907043009</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>11</v>
+          </cell>
+          <cell r="F25">
+            <v>-87.953800000000001</v>
+          </cell>
+          <cell r="W25">
+            <v>-86.55330920684996</v>
+          </cell>
+        </row>
         <row r="26">
-          <cell r="S26">
-            <v>1.263143050722322</v>
+          <cell r="E26">
+            <v>11.5</v>
+          </cell>
+          <cell r="F26">
+            <v>-84.3125</v>
+          </cell>
+          <cell r="W26">
+            <v>-86.839453823020918</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>12</v>
+          </cell>
+          <cell r="F27">
+            <v>-82.921099999999996</v>
+          </cell>
+          <cell r="W27">
+            <v>-87.112876614594825</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="S28">
-            <v>0.41027396010385908</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>0.99992120117833516</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>0.60457886120960791</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="S57">
-            <v>1.4953657464095205</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>1.0308939784338185</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="S73">
-            <v>1.3241425104230853</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="S75">
-            <v>0.74004139884578657</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="S89">
-            <v>1.9112868500853688</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="S91">
-            <v>0.81457586539492954</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="S104">
-            <v>3.7378248027189311</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="S106">
-            <v>1.9318642312619458</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="S122">
-            <v>4.2751477595905714</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="S124">
-            <v>2.1459610487677274</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="S141">
-            <v>5.7964821724025022</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="S143">
-            <v>2.0000391056835194</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="S162">
-            <v>5.3737615914035173</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="S164">
-            <v>1.9524462234226341</v>
+          <cell r="E28">
+            <v>12.5</v>
+          </cell>
+          <cell r="F28">
+            <v>-87.416700000000006</v>
+          </cell>
+          <cell r="W28">
+            <v>-87.374660802885515</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>13</v>
+          </cell>
+          <cell r="F29">
+            <v>-85.446799999999996</v>
+          </cell>
+          <cell r="W29">
+            <v>-87.625756891180259</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>13.5</v>
+          </cell>
+          <cell r="F30">
+            <v>-85.736800000000002</v>
+          </cell>
+          <cell r="W30">
+            <v>-87.867003497786712</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>14</v>
+          </cell>
+          <cell r="F31">
+            <v>-84.237300000000005</v>
+          </cell>
+          <cell r="W31">
+            <v>-88.099144255209808</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>14.5</v>
+          </cell>
+          <cell r="F32">
+            <v>-92.018500000000003</v>
+          </cell>
+          <cell r="W32">
+            <v>-88.322841634505437</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>-88.538688342665111</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26442,105 +26477,356 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc0"/>
-      <sheetName val="Określanie odległości"/>
-      <sheetName val="Symulacja 1D"/>
+      <sheetName val="moc-12stat"/>
+      <sheetName val="Arkusz1"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0.3</v>
+          </cell>
+          <cell r="F2">
+            <v>-66</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>-72</v>
+          </cell>
+          <cell r="W3">
+            <v>-68.068493129877638</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.75</v>
+          </cell>
+          <cell r="F4">
+            <v>-75</v>
+          </cell>
+          <cell r="W4">
+            <v>-71.245317684086544</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>-73.657142857142858</v>
+          </cell>
+          <cell r="W5">
+            <v>-73.766905191417749</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1.5</v>
+          </cell>
+          <cell r="F6">
+            <v>-74.266666666666666</v>
+          </cell>
+          <cell r="W6">
+            <v>-75.555999999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+          <cell r="F7">
+            <v>-77.714285714285708</v>
+          </cell>
+          <cell r="W7">
+            <v>-78.077587507331188</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>2.5</v>
+          </cell>
+          <cell r="F8">
+            <v>-83.56</v>
+          </cell>
+          <cell r="W8">
+            <v>-79.866682315913451</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>-89.928571428571431</v>
+          </cell>
+          <cell r="W9">
+            <v>-81.254412061540108</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>3.5</v>
+          </cell>
+          <cell r="F10">
+            <v>-84.8125</v>
+          </cell>
+          <cell r="W10">
+            <v>-82.388269823244642</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>-90.04</v>
+          </cell>
+          <cell r="W11">
+            <v>-83.346932901092842</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>4.5</v>
+          </cell>
+          <cell r="F12">
+            <v>-80.939393939393938</v>
+          </cell>
+          <cell r="W12">
+            <v>-84.17736463182689</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>5</v>
+          </cell>
+          <cell r="F13">
+            <v>-81.567567567567565</v>
+          </cell>
+          <cell r="W13">
+            <v>-84.909857330575832</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>5.5</v>
+          </cell>
+          <cell r="F14">
+            <v>-84.459459459459453</v>
+          </cell>
+          <cell r="W14">
+            <v>-85.565094377453548</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>-90.962962962962962</v>
+          </cell>
+          <cell r="W15">
+            <v>-86.157828385658178</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>6.5</v>
+          </cell>
+          <cell r="F16">
+            <v>-88.875</v>
+          </cell>
+          <cell r="W16">
+            <v>-86.698952139158081</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>-81.941176470588232</v>
+          </cell>
+          <cell r="W17">
+            <v>-87.196737738181099</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>7.5</v>
+          </cell>
+          <cell r="F18">
+            <v>-90.936507936507937</v>
+          </cell>
+          <cell r="W18">
+            <v>-87.657615217006281</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>8</v>
+          </cell>
+          <cell r="F19">
+            <v>-96.333333333333329</v>
+          </cell>
+          <cell r="W19">
+            <v>-88.086681884784753</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>8.5</v>
+          </cell>
+          <cell r="F20">
+            <v>-88.35</v>
+          </cell>
+          <cell r="W20">
+            <v>-88.488046947740344</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>9</v>
+          </cell>
+          <cell r="F21">
+            <v>-88.918032786885249</v>
+          </cell>
+          <cell r="W21">
+            <v>-88.865071470817725</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>9.5</v>
+          </cell>
+          <cell r="F22">
+            <v>-87.260869565217391</v>
+          </cell>
+          <cell r="W22">
+            <v>-89.220539646489286</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>10</v>
+          </cell>
+          <cell r="F23">
+            <v>-85.955223880597018</v>
+          </cell>
+          <cell r="W23">
+            <v>-89.55678369556999</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>10.5</v>
+          </cell>
+          <cell r="F24">
+            <v>-94.34210526315789</v>
+          </cell>
+          <cell r="W24">
+            <v>-89.875776693367001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>11</v>
+          </cell>
+          <cell r="F25">
+            <v>-91.833333333333329</v>
+          </cell>
+          <cell r="W25">
+            <v>-90.179202724337472</v>
+          </cell>
+        </row>
         <row r="26">
-          <cell r="S26">
-            <v>0.25755941233898927</v>
+          <cell r="E26">
+            <v>11.5</v>
+          </cell>
+          <cell r="F26">
+            <v>-88.84210526315789</v>
+          </cell>
+          <cell r="W26">
+            <v>-90.468510701571631</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>12</v>
+          </cell>
+          <cell r="F27">
+            <v>-87.38356164383562</v>
+          </cell>
+          <cell r="W27">
+            <v>-90.74495621300035</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="S28">
-            <v>0.17294487601566294</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>0.9932597089930455</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>0.64660804430098695</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="S57">
-            <v>1.3556295539109908</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>0.71556967415843487</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="S73">
-            <v>1.3556295539109908</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="S75">
-            <v>0.93272717300044106</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="S89">
-            <v>0.86702956148198318</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="S91">
-            <v>0.58756256043011146</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="S104">
-            <v>3.7226591153929736</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="S106">
-            <v>2.0550639286694299</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="S122">
-            <v>3.7226591153929736</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="S124">
-            <v>1.6245315294501037</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="S141">
-            <v>5.7835891119264895</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="S143">
-            <v>1.6667689032869581</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="S162">
-            <v>5.7835891119264895</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="S164">
-            <v>2.577689918139709</v>
+          <cell r="E28">
+            <v>12.5</v>
+          </cell>
+          <cell r="F28">
+            <v>-91.513157894736835</v>
+          </cell>
+          <cell r="W28">
+            <v>-91.009634455071534</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>13</v>
+          </cell>
+          <cell r="F29">
+            <v>-89.641025641025635</v>
+          </cell>
+          <cell r="W29">
+            <v>-91.263506438993659</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>13.5</v>
+          </cell>
+          <cell r="F30">
+            <v>-89.75555555555556</v>
+          </cell>
+          <cell r="W30">
+            <v>-91.507420054094538</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>14</v>
+          </cell>
+          <cell r="F31">
+            <v>-88.316666666666663</v>
+          </cell>
+          <cell r="W31">
+            <v>-91.742127153820476</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>14.5</v>
+          </cell>
+          <cell r="F32">
+            <v>-95.982456140350877</v>
+          </cell>
+          <cell r="W32">
+            <v>-91.968297532919735</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>-92.186530450826581</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -26550,102 +26836,351 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc-8"/>
-      <sheetName val="Określanie odległości"/>
-      <sheetName val="Symulacja 1D"/>
+      <sheetName val="moc-16stat"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0.3</v>
+          </cell>
+          <cell r="F2">
+            <v>-70.272727272727266</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>-75.25</v>
+          </cell>
+          <cell r="W3">
+            <v>-72.046955334963357</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.75</v>
+          </cell>
+          <cell r="F4">
+            <v>-79.42307692307692</v>
+          </cell>
+          <cell r="W4">
+            <v>-75.190065398003625</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>-78</v>
+          </cell>
+          <cell r="W5">
+            <v>-77.684892208199614</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1.5</v>
+          </cell>
+          <cell r="F6">
+            <v>-78.5</v>
+          </cell>
+          <cell r="W6">
+            <v>-79.454999999999998</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+          <cell r="F7">
+            <v>-81.095238095238102</v>
+          </cell>
+          <cell r="W7">
+            <v>-81.949826810195987</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>2.5</v>
+          </cell>
+          <cell r="F8">
+            <v>-87.222222222222229</v>
+          </cell>
+          <cell r="W8">
+            <v>-83.719934601996371</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>-93.72</v>
+          </cell>
+          <cell r="W9">
+            <v>-85.092936873236255</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>3.5</v>
+          </cell>
+          <cell r="F10">
+            <v>-87.852941176470594</v>
+          </cell>
+          <cell r="W10">
+            <v>-86.21476141219236</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>-96.090909090909093</v>
+          </cell>
+          <cell r="W11">
+            <v>-87.163250545171934</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>4.5</v>
+          </cell>
+          <cell r="F12">
+            <v>-84.6875</v>
+          </cell>
+          <cell r="W12">
+            <v>-87.984869203992744</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>5</v>
+          </cell>
+          <cell r="F13">
+            <v>-85.78125</v>
+          </cell>
+          <cell r="W13">
+            <v>-88.709588222388348</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>5.5</v>
+          </cell>
+          <cell r="F14">
+            <v>-88.411764705882348</v>
+          </cell>
+          <cell r="W14">
+            <v>-89.357871475232628</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>-92.6</v>
+          </cell>
+          <cell r="W15">
+            <v>-89.944315011570154</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>6.5</v>
+          </cell>
+          <cell r="F16">
+            <v>-90.892857142857139</v>
+          </cell>
+          <cell r="W16">
+            <v>-90.479696014188733</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>-85.6875</v>
+          </cell>
+          <cell r="W17">
+            <v>-90.972198794505275</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>7.5</v>
+          </cell>
+          <cell r="F18">
+            <v>-94.14</v>
+          </cell>
+          <cell r="W18">
+            <v>-91.428185147168307</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>8</v>
+          </cell>
+          <cell r="F19">
+            <v>-98.526315789473685</v>
+          </cell>
+          <cell r="W19">
+            <v>-91.852698285428616</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>8.5</v>
+          </cell>
+          <cell r="F20">
+            <v>-92.5</v>
+          </cell>
+          <cell r="W20">
+            <v>-92.249803805989117</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>9</v>
+          </cell>
+          <cell r="F21">
+            <v>-93.491803278688522</v>
+          </cell>
+          <cell r="W21">
+            <v>-92.622827104026598</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>9.5</v>
+          </cell>
+          <cell r="F22">
+            <v>-91.623655913978496</v>
+          </cell>
+          <cell r="W22">
+            <v>-92.974522824384707</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>10</v>
+          </cell>
+          <cell r="F23">
+            <v>-90.035714285714292</v>
+          </cell>
+          <cell r="W23">
+            <v>-93.307198436861583</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>10.5</v>
+          </cell>
+          <cell r="F24">
+            <v>-98.470588235294116</v>
+          </cell>
+          <cell r="W24">
+            <v>-93.622806077229001</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>11</v>
+          </cell>
+          <cell r="F25">
+            <v>-95.745098039215691</v>
+          </cell>
+          <cell r="W25">
+            <v>-93.923011957364281</v>
+          </cell>
+        </row>
         <row r="26">
-          <cell r="S26">
-            <v>0.27623905096686685</v>
+          <cell r="E26">
+            <v>11.5</v>
+          </cell>
+          <cell r="F26">
+            <v>-92.909090909090907</v>
+          </cell>
+          <cell r="W26">
+            <v>-94.209249613566527</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>12</v>
+          </cell>
+          <cell r="F27">
+            <v>-91.269230769230774</v>
+          </cell>
+          <cell r="W27">
+            <v>-94.482761308665573</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="S28">
-            <v>0.20043903827307868</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>1.0070733845591784</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>0.65303151649569735</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="S57">
-            <v>1.4202763512882211</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>0.82095993398041134</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="S73">
-            <v>1.4202763512882211</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="S75">
-            <v>0.94022485635095465</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="S89">
-            <v>0.81461607104779921</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="S91">
-            <v>0.56783577186789647</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="S104">
-            <v>3.7348924223360198</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="S106">
-            <v>2.0582008490009871</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="S122">
-            <v>3.5240656322087918</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="S124">
-            <v>1.5621073577830025</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="S141">
-            <v>5.7552936469504505</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="S143">
-            <v>1.6153045045297778</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="S162">
-            <v>4.6076988476093161</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="S164">
-            <v>2.3773160926102395</v>
+          <cell r="E28">
+            <v>12.5</v>
+          </cell>
+          <cell r="F28">
+            <v>-95.031746031746039</v>
+          </cell>
+          <cell r="W28">
+            <v>-94.744630616185106</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>13</v>
+          </cell>
+          <cell r="F29">
+            <v>-93.772727272727266</v>
+          </cell>
+          <cell r="W29">
+            <v>-94.995808348468884</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>13.5</v>
+          </cell>
+          <cell r="F30">
+            <v>-93.478260869565219</v>
+          </cell>
+          <cell r="W30">
+            <v>-95.237133396501648</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>14</v>
+          </cell>
+          <cell r="F31">
+            <v>-92.377358490566039</v>
+          </cell>
+          <cell r="W31">
+            <v>-95.469349634580695</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>14.5</v>
+          </cell>
+          <cell r="F32">
+            <v>-99.837837837837839</v>
+          </cell>
+          <cell r="W32">
+            <v>-95.693119749164666</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>-95.909036639963972</v>
           </cell>
         </row>
       </sheetData>
@@ -26658,102 +27193,340 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc-12"/>
-      <sheetName val="Określanie odległości"/>
-      <sheetName val="Symulacja 1D"/>
+      <sheetName val="moc-20stat"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0.3</v>
+          </cell>
+          <cell r="F2">
+            <v>-74</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>-79.486486486486484</v>
+          </cell>
+          <cell r="W3">
+            <v>-76.255629245369434</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.75</v>
+          </cell>
+          <cell r="F4">
+            <v>-83.321428571428569</v>
+          </cell>
+          <cell r="W4">
+            <v>-79.209223001992029</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>-81.590909090909093</v>
+          </cell>
+          <cell r="W5">
+            <v>-81.553622257079496</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1.5</v>
+          </cell>
+          <cell r="F6">
+            <v>-82.214285714285708</v>
+          </cell>
+          <cell r="W6">
+            <v>-83.216999999999999</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+          <cell r="F7">
+            <v>-85.224999999999994</v>
+          </cell>
+          <cell r="W7">
+            <v>-85.561399255087466</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>2.5</v>
+          </cell>
+          <cell r="F8">
+            <v>-91.222222222222229</v>
+          </cell>
+          <cell r="W8">
+            <v>-87.224776998007968</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>-97.090909090909093</v>
+          </cell>
+          <cell r="W9">
+            <v>-88.514993011710061</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>3.5</v>
+          </cell>
+          <cell r="F10">
+            <v>-92.083333333333329</v>
+          </cell>
+          <cell r="W10">
+            <v>-89.569176253095435</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>4</v>
+          </cell>
+          <cell r="F11">
+            <v>-98.214285714285708</v>
+          </cell>
+          <cell r="W11">
+            <v>-90.460475483858943</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>4.5</v>
+          </cell>
+          <cell r="F12">
+            <v>-88.09375</v>
+          </cell>
+          <cell r="W12">
+            <v>-91.232553996015938</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>5</v>
+          </cell>
+          <cell r="F13">
+            <v>-89.266666666666666</v>
+          </cell>
+          <cell r="W13">
+            <v>-91.913575508182902</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>5.5</v>
+          </cell>
+          <cell r="F14">
+            <v>-91.370370370370367</v>
+          </cell>
+          <cell r="W14">
+            <v>-92.52277000971803</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>6</v>
+          </cell>
+          <cell r="F15">
+            <v>-91.84615384615384</v>
+          </cell>
+          <cell r="W15">
+            <v>-93.073853469348066</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>6.5</v>
+          </cell>
+          <cell r="F16">
+            <v>-96.642857142857139</v>
+          </cell>
+          <cell r="W16">
+            <v>-93.576953251103404</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>7</v>
+          </cell>
+          <cell r="F17">
+            <v>-89.137931034482762</v>
+          </cell>
+          <cell r="W17">
+            <v>-94.039760186872982</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>7.5</v>
+          </cell>
+          <cell r="F18">
+            <v>-97.75</v>
+          </cell>
+          <cell r="W18">
+            <v>-94.468252481866912</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>8</v>
+          </cell>
+          <cell r="F19">
+            <v>-97.5</v>
+          </cell>
+          <cell r="W19">
+            <v>-94.867169264805497</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>8.5</v>
+          </cell>
+          <cell r="F20">
+            <v>-96.072727272727278</v>
+          </cell>
+          <cell r="W20">
+            <v>-95.240330994023907</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>9</v>
+          </cell>
+          <cell r="F21">
+            <v>-96.740740740740748</v>
+          </cell>
+          <cell r="W21">
+            <v>-95.59086255736743</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>9.5</v>
+          </cell>
+          <cell r="F22">
+            <v>-95.295454545454547</v>
+          </cell>
+          <cell r="W22">
+            <v>-95.921352506190871</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>10</v>
+          </cell>
+          <cell r="F23">
+            <v>-93.544117647058826</v>
+          </cell>
+          <cell r="W23">
+            <v>-96.233969179576405</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>10.5</v>
+          </cell>
+          <cell r="F24">
+            <v>-100.91666666666667</v>
+          </cell>
+          <cell r="W24">
+            <v>-96.530547007726</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>11</v>
+          </cell>
+          <cell r="F25">
+            <v>-99.268292682926827</v>
+          </cell>
+          <cell r="W25">
+            <v>-96.812651736954379</v>
+          </cell>
+        </row>
         <row r="26">
-          <cell r="S26">
-            <v>0.21774469740559743</v>
+          <cell r="E26">
+            <v>11.5</v>
+          </cell>
+          <cell r="F26">
+            <v>-96.882352941176464</v>
+          </cell>
+          <cell r="W26">
+            <v>-97.081630467356035</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>12</v>
+          </cell>
+          <cell r="F27">
+            <v>-94.634920634920633</v>
+          </cell>
+          <cell r="W27">
+            <v>-97.338650558541246</v>
           </cell>
         </row>
         <row r="28">
-          <cell r="S28">
-            <v>0.13746923599240807</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>0.95017987624758926</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>0.61959430966128115</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="S57">
-            <v>1.2941815452197245</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>0.72975053660788747</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="S73">
-            <v>1.2941815452197245</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="S75">
-            <v>0.88719086064285213</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="S89">
-            <v>0.94662175172040897</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="S91">
-            <v>0.55741252204453073</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="S104">
-            <v>3.7408032969401335</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="S106">
-            <v>1.9867919453855212</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="S122">
-            <v>3.7408032969401335</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="S124">
-            <v>1.6381874971161117</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="S141">
-            <v>5.8192439448018245</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="S143">
-            <v>1.6421546956067858</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="S162">
-            <v>5.371352249158547</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="S164">
-            <v>2.1929769015530041</v>
+          <cell r="E28">
+            <v>12.5</v>
+          </cell>
+          <cell r="F28">
+            <v>-98.075471698113205</v>
+          </cell>
+          <cell r="W28">
+            <v>-97.584730249111374</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>13</v>
+          </cell>
+          <cell r="F29">
+            <v>-97.843137254901961</v>
+          </cell>
+          <cell r="W29">
+            <v>-97.820763021428093</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>13.5</v>
+          </cell>
+          <cell r="F30">
+            <v>-96.9</v>
+          </cell>
+          <cell r="W30">
+            <v>-98.047537184880952</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>14</v>
+          </cell>
+          <cell r="F31">
+            <v>-95.983050847457633</v>
+          </cell>
+          <cell r="W31">
+            <v>-98.265751761278338</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="W32">
+            <v>-98.476029479874882</v>
           </cell>
         </row>
       </sheetData>
@@ -26766,210 +27539,92 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc-16"/>
-      <sheetName val="Określanie odległości"/>
-      <sheetName val="Symulacja 1D"/>
+      <sheetName val="moc-30stat"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="26">
-          <cell r="S26">
-            <v>0.27254268556440353</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="S28">
-            <v>0.19250580338305734</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>0.91331275958083147</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>0.58828568365318834</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="S57">
-            <v>1.3778379092206807</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>0.69493668621642823</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="S73">
-            <v>1.3778379092206807</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="S75">
-            <v>0.89210093077010888</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="S89">
-            <v>0.74049681736179984</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="S91">
-            <v>0.49554537691201983</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="S104">
-            <v>3.5977794180255671</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="S106">
-            <v>1.9943561971855246</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="S122">
-            <v>3.5977794180255671</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="S124">
-            <v>1.547391357071588</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="S141">
-            <v>5.4648091041811888</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="S143">
-            <v>1.6817115418766784</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="S162">
-            <v>5.6426250636500779</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="S164">
-            <v>2.2260947479778799</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="moc-20"/>
-      <sheetName val="Określanie odległości"/>
-      <sheetName val="Symulacja 1D"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="26">
-          <cell r="S26">
-            <v>0.24604404452580919</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="S28">
-            <v>0.15518579966957574</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="S40">
-            <v>0.9118534357468554</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="S42">
-            <v>0.60655598819638146</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="S57">
-            <v>1.3075237385457341</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="S59">
-            <v>0.73090406397545482</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="S73">
-            <v>1.3075237385457341</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="S75">
-            <v>0.88190996756106865</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="S89">
-            <v>0.84518084283289241</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="S91">
-            <v>0.55359635451489031</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="S104">
-            <v>3.6406240012957705</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="S106">
-            <v>1.7391809129200821</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="S122">
-            <v>3.7937653786483265</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="S124">
-            <v>2.0401907260831464</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="S141">
-            <v>5.7314867371822835</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="S143">
-            <v>2.1549820255703822</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="S162">
-            <v>5.7314867371822835</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="S164">
-            <v>1.9231132024765092</v>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="E2">
+            <v>0.3</v>
+          </cell>
+          <cell r="F2">
+            <v>-88</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0.5</v>
+          </cell>
+          <cell r="F3">
+            <v>-93.52</v>
+          </cell>
+          <cell r="W3">
+            <v>-89.714327819653477</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.75</v>
+          </cell>
+          <cell r="F4">
+            <v>-96.692307692307693</v>
+          </cell>
+          <cell r="W4">
+            <v>-92.115208251359832</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>-94.892857142857139</v>
+          </cell>
+          <cell r="W5">
+            <v>-94.020894259473138</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>1.5</v>
+          </cell>
+          <cell r="F6">
+            <v>-95</v>
+          </cell>
+          <cell r="W6">
+            <v>-95.373000000000005</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>2</v>
+          </cell>
+          <cell r="F7">
+            <v>-98.4</v>
+          </cell>
+          <cell r="W7">
+            <v>-97.278686008113311</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>3.5</v>
+          </cell>
+          <cell r="W8">
+            <v>-98.630791748640178</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>4.5</v>
+          </cell>
+          <cell r="W9">
+            <v>-101.26098595194345</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="W10">
+            <v>-102.44216376486678</v>
           </cell>
         </row>
       </sheetData>
@@ -26982,119 +27637,102 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="moc-30"/>
-      <sheetName val="Arkusz1"/>
+      <sheetName val="moc0"/>
+      <sheetName val="Określanie odległości"/>
+      <sheetName val="Symulacja 1D"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="M2">
-            <v>0.3</v>
-          </cell>
-          <cell r="AC2">
-            <v>6.2422655134389757E-2</v>
-          </cell>
-          <cell r="AD2">
-            <v>0.20831094154979807</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="M3">
-            <v>0.5</v>
-          </cell>
-          <cell r="AC3">
-            <v>0.52676625632337659</v>
-          </cell>
-          <cell r="AD3">
-            <v>0.64335164026476122</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="M4">
-            <v>0.75</v>
-          </cell>
-          <cell r="AC4">
-            <v>2.2427783426251566</v>
-          </cell>
-          <cell r="AD4">
-            <v>1.3838834165083189</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>1</v>
-          </cell>
-          <cell r="AC5">
-            <v>0.88882784057115993</v>
-          </cell>
-          <cell r="AD5">
-            <v>0.84834483134770078</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>1.5</v>
-          </cell>
-          <cell r="AC6">
-            <v>1.1315638133562562</v>
-          </cell>
-          <cell r="AD6">
-            <v>0.9638606867464411</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="M7">
-            <v>2</v>
-          </cell>
-          <cell r="AC7">
-            <v>4.1014729953070193</v>
-          </cell>
-          <cell r="AD7">
-            <v>1.9041630214051066</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="M8">
-            <v>2.5</v>
-          </cell>
-          <cell r="AC8"/>
-          <cell r="AD8"/>
-        </row>
-        <row r="9">
-          <cell r="M9">
-            <v>3</v>
-          </cell>
-          <cell r="AC9"/>
-          <cell r="AD9"/>
-        </row>
-        <row r="10">
-          <cell r="M10">
-            <v>3.5</v>
-          </cell>
-          <cell r="AC10">
-            <v>15</v>
-          </cell>
-          <cell r="AD10">
-            <v>4.0959554040562391</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="M11">
-            <v>4</v>
-          </cell>
-          <cell r="AC11"/>
-          <cell r="AD11"/>
-        </row>
-        <row r="12">
-          <cell r="M12">
-            <v>4.5</v>
-          </cell>
-          <cell r="AC12">
-            <v>15</v>
-          </cell>
-          <cell r="AD12">
-            <v>4.3659237227277359</v>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="S26">
+            <v>0.25755941233898927</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="S28">
+            <v>0.16997693490638127</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40">
+            <v>1.0242791950945691</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42">
+            <v>0.66128993692461202</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57">
+            <v>1.3556295539109908</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59">
+            <v>0.71137665540808914</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="S73">
+            <v>1.3556295539109908</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="S75">
+            <v>0.92375504128057984</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="S89">
+            <v>0.86702956148198318</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="S91">
+            <v>0.59467912278591317</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="S104">
+            <v>3.722659115392974</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="S106">
+            <v>2.0590772977661662</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="S122">
+            <v>3.722659115392974</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="S124">
+            <v>1.621570103687106</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="S141">
+            <v>5.8032462580224102</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="S143">
+            <v>1.597095654494481</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="S162">
+            <v>5.8032462580224102</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="S164">
+            <v>2.5908660911635519</v>
           </cell>
         </row>
       </sheetData>
@@ -27104,6 +27742,548 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="moc-4"/>
+      <sheetName val="Symulacja 1D"/>
+      <sheetName val="Symulacja 2D"/>
+      <sheetName val="Określanie odległości"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="26">
+          <cell r="S26">
+            <v>0.23183763052170381</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="S28">
+            <v>0.17053204104998487</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40">
+            <v>0.81900508303060926</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42">
+            <v>0.57053980577394137</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57">
+            <v>1.3473230012292312</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59">
+            <v>0.66047356532940471</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="S73">
+            <v>1.3473230012292312</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="S75">
+            <v>0.93900945827491167</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="S89">
+            <v>0.913235268668255</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="S91">
+            <v>0.56480708337344765</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="S104">
+            <v>3.7605582698974862</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="S106">
+            <v>2.1196477475102982</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="S122">
+            <v>3.7605582698974862</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="S124">
+            <v>1.5722639893963664</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="S141">
+            <v>5.8375525384264826</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="S143">
+            <v>1.6015065721610517</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="S162">
+            <v>5.361717895014225</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="S164">
+            <v>2.2149248816133302</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="moc-8"/>
+      <sheetName val="Określanie odległości"/>
+      <sheetName val="Symulacja 1D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="S26">
+            <v>0.27623905096686685</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="S28">
+            <v>0.20043903827307868</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40">
+            <v>1.0070733845591784</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42">
+            <v>0.65303151649569735</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57">
+            <v>1.4202763512882211</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59">
+            <v>0.82095993398041134</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="S73">
+            <v>1.4202763512882211</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="S75">
+            <v>0.94022485635095465</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="S89">
+            <v>0.81461607104779921</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="S91">
+            <v>0.56783577186789647</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="S104">
+            <v>3.7348924223360198</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="S106">
+            <v>2.0582008490009871</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="S122">
+            <v>3.5240656322087918</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="S124">
+            <v>1.5621073577830025</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="S141">
+            <v>5.7552936469504505</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="S143">
+            <v>1.6153045045297778</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="S162">
+            <v>4.6076988476093161</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="S164">
+            <v>2.3773160926102395</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="moc-12"/>
+      <sheetName val="Określanie odległości"/>
+      <sheetName val="Symulacja 1D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="S26">
+            <v>0.21774469740559743</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="S28">
+            <v>0.13746923599240807</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40">
+            <v>0.95017987624758926</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42">
+            <v>0.61959430966128115</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57">
+            <v>1.2941815452197245</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59">
+            <v>0.72975053660788747</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="S73">
+            <v>1.2941815452197245</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="S75">
+            <v>0.88719086064285213</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="S89">
+            <v>0.94662175172040897</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="S91">
+            <v>0.55741252204453073</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="S104">
+            <v>3.7408032969401335</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="S106">
+            <v>1.9867919453855212</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="S122">
+            <v>3.7408032969401335</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="S124">
+            <v>1.6381874971161117</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="S141">
+            <v>5.8192439448018245</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="S143">
+            <v>1.6421546956067858</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="S162">
+            <v>5.371352249158547</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="S164">
+            <v>2.1929769015530041</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="moc-16"/>
+      <sheetName val="Określanie odległości"/>
+      <sheetName val="Symulacja 1D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="S26">
+            <v>0.27254268556440353</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="S28">
+            <v>0.19250580338305734</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40">
+            <v>0.91331275958083147</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42">
+            <v>0.58828568365318834</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57">
+            <v>1.3778379092206807</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59">
+            <v>0.69493668621642823</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="S73">
+            <v>1.3778379092206807</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="S75">
+            <v>0.89210093077010888</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="S89">
+            <v>0.74049681736179984</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="S91">
+            <v>0.49554537691201983</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="S104">
+            <v>3.5977794180255671</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="S106">
+            <v>1.9943561971855246</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="S122">
+            <v>3.5977794180255671</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="S124">
+            <v>1.547391357071588</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="S141">
+            <v>5.4648091041811888</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="S143">
+            <v>1.6817115418766784</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="S162">
+            <v>5.6426250636500779</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="S164">
+            <v>2.2260947479778799</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="moc-20"/>
+      <sheetName val="Określanie odległości"/>
+      <sheetName val="Symulacja 1D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="S26">
+            <v>0.24604404452580919</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="S28">
+            <v>0.15518579966957574</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="S40">
+            <v>0.9118534357468554</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="S42">
+            <v>0.60655598819638146</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="S57">
+            <v>1.3075237385457341</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="S59">
+            <v>0.73090406397545482</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="S73">
+            <v>1.3075237385457341</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="S75">
+            <v>0.88190996756106865</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="S89">
+            <v>0.84518084283289241</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="S91">
+            <v>0.55359635451489031</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="S104">
+            <v>3.6406240012957705</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="S106">
+            <v>1.7391809129200821</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="S122">
+            <v>3.7937653786483265</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="S124">
+            <v>2.0401907260831464</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="S141">
+            <v>5.7314867371822835</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="S143">
+            <v>2.1549820255703822</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="S162">
+            <v>5.7314867371822835</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="S164">
+            <v>1.9231132024765092</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -27462,7 +28642,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -27811,1789 +28991,6 @@
         <row r="33">
           <cell r="W33">
             <v>-80.856924410222476</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="moc-4stat"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="F1" t="str">
-            <v>RSSI po odsianiu</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>0.3</v>
-          </cell>
-          <cell r="F2">
-            <v>-59.310344827586206</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>0.5</v>
-          </cell>
-          <cell r="F3">
-            <v>-64.45</v>
-          </cell>
-          <cell r="W3">
-            <v>-60.828821619399712</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>0.75</v>
-          </cell>
-          <cell r="F4">
-            <v>-68</v>
-          </cell>
-          <cell r="W4">
-            <v>-64.014841034836437</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>-66.620689655172413</v>
-          </cell>
-          <cell r="W5">
-            <v>-66.543726914113591</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1.5</v>
-          </cell>
-          <cell r="F6">
-            <v>-67.285714285714292</v>
-          </cell>
-          <cell r="W6">
-            <v>-68.337999999999994</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>2</v>
-          </cell>
-          <cell r="F7">
-            <v>-70</v>
-          </cell>
-          <cell r="W7">
-            <v>-70.866885879277149</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>2.5</v>
-          </cell>
-          <cell r="F8">
-            <v>-76</v>
-          </cell>
-          <cell r="W8">
-            <v>-72.661158965163551</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="F9">
-            <v>-83.129032258064512</v>
-          </cell>
-          <cell r="W9">
-            <v>-74.052905294713881</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>3.5</v>
-          </cell>
-          <cell r="F10">
-            <v>-76.617647058823536</v>
-          </cell>
-          <cell r="W10">
-            <v>-75.190044844440706</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>4</v>
-          </cell>
-          <cell r="F11">
-            <v>-81.196078431372555</v>
-          </cell>
-          <cell r="W11">
-            <v>-76.151482634525806</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>4.5</v>
-          </cell>
-          <cell r="F12">
-            <v>-73.41935483870968</v>
-          </cell>
-          <cell r="W12">
-            <v>-76.984317930327109</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>5</v>
-          </cell>
-          <cell r="F13">
-            <v>-74</v>
-          </cell>
-          <cell r="W13">
-            <v>-77.718930723717875</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>5.5</v>
-          </cell>
-          <cell r="F14">
-            <v>-76.766666666666666</v>
-          </cell>
-          <cell r="W14">
-            <v>-78.376064259877438</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="F15">
-            <v>-83.60526315789474</v>
-          </cell>
-          <cell r="W15">
-            <v>-78.970513851318543</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>6.5</v>
-          </cell>
-          <cell r="F16">
-            <v>-84.407407407407405</v>
-          </cell>
-          <cell r="W16">
-            <v>-79.513203809604278</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>-73.892857142857139</v>
-          </cell>
-          <cell r="W17">
-            <v>-80.012430177365403</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>7.5</v>
-          </cell>
-          <cell r="F18">
-            <v>-83.822916666666671</v>
-          </cell>
-          <cell r="W18">
-            <v>-80.474641599689363</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>8</v>
-          </cell>
-          <cell r="F19">
-            <v>-91.464646464646464</v>
-          </cell>
-          <cell r="W19">
-            <v>-80.904950139154593</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>8.5</v>
-          </cell>
-          <cell r="F20">
-            <v>-81.431818181818187</v>
-          </cell>
-          <cell r="W20">
-            <v>-81.307476895490666</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>9</v>
-          </cell>
-          <cell r="F21">
-            <v>-82.359375</v>
-          </cell>
-          <cell r="W21">
-            <v>-81.685592661760751</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>9.5</v>
-          </cell>
-          <cell r="F22">
-            <v>-80.696629213483149</v>
-          </cell>
-          <cell r="W22">
-            <v>-82.042089688881433</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>10</v>
-          </cell>
-          <cell r="F23">
-            <v>-78.464788732394368</v>
-          </cell>
-          <cell r="W23">
-            <v>-82.379306947945011</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>10.5</v>
-          </cell>
-          <cell r="F24">
-            <v>-87</v>
-          </cell>
-          <cell r="W24">
-            <v>-82.699223225040996</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>11</v>
-          </cell>
-          <cell r="F25">
-            <v>-84.660714285714292</v>
-          </cell>
-          <cell r="W25">
-            <v>-83.003527478966532</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>11.5</v>
-          </cell>
-          <cell r="F26">
-            <v>-81.5</v>
-          </cell>
-          <cell r="W26">
-            <v>-83.293672816482101</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>12</v>
-          </cell>
-          <cell r="F27">
-            <v>-79.828947368421055</v>
-          </cell>
-          <cell r="W27">
-            <v>-83.570918459637113</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>12.5</v>
-          </cell>
-          <cell r="F28">
-            <v>-84.109589041095887</v>
-          </cell>
-          <cell r="W28">
-            <v>-83.836362774767821</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>13</v>
-          </cell>
-          <cell r="F29">
-            <v>-82.128205128205124</v>
-          </cell>
-          <cell r="W29">
-            <v>-84.090969554591311</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>13.5</v>
-          </cell>
-          <cell r="F30">
-            <v>-82</v>
-          </cell>
-          <cell r="W30">
-            <v>-84.33558914252896</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>14</v>
-          </cell>
-          <cell r="F31">
-            <v>-81</v>
-          </cell>
-          <cell r="W31">
-            <v>-84.570975568158588</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>14.5</v>
-          </cell>
-          <cell r="F32">
-            <v>-89.075757575757578</v>
-          </cell>
-          <cell r="W32">
-            <v>-84.797800564852921</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="W33">
-            <v>-85.016665126516386</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="moc-8stat"/>
-      <sheetName val="Arkusz1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="E2">
-            <v>0.3</v>
-          </cell>
-          <cell r="F2">
-            <v>-62.5757575757575</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>0.5</v>
-          </cell>
-          <cell r="F3">
-            <v>-68</v>
-          </cell>
-          <cell r="W3">
-            <v>-64.684363280572015</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>0.75</v>
-          </cell>
-          <cell r="F4">
-            <v>-71.777799999999999</v>
-          </cell>
-          <cell r="W4">
-            <v>-67.826451692364756</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>-70</v>
-          </cell>
-          <cell r="W5">
-            <v>-70.320467572344526</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1.5</v>
-          </cell>
-          <cell r="F6">
-            <v>-70.555599999999998</v>
-          </cell>
-          <cell r="W6">
-            <v>-72.09</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>2</v>
-          </cell>
-          <cell r="F7">
-            <v>-73</v>
-          </cell>
-          <cell r="W7">
-            <v>-74.584015879979773</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>2.5</v>
-          </cell>
-          <cell r="F8">
-            <v>-80</v>
-          </cell>
-          <cell r="W8">
-            <v>-76.353548307635251</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="F9">
-            <v>-86.791700000000006</v>
-          </cell>
-          <cell r="W9">
-            <v>-77.726104291772501</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>3.5</v>
-          </cell>
-          <cell r="F10">
-            <v>-81.5</v>
-          </cell>
-          <cell r="W10">
-            <v>-78.847564187615021</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>4</v>
-          </cell>
-          <cell r="F11">
-            <v>-85.846199999999996</v>
-          </cell>
-          <cell r="W11">
-            <v>-79.795745019234943</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>4.5</v>
-          </cell>
-          <cell r="F12">
-            <v>-76.7667</v>
-          </cell>
-          <cell r="W12">
-            <v>-80.617096615270498</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>5</v>
-          </cell>
-          <cell r="F13">
-            <v>-77.964299999999994</v>
-          </cell>
-          <cell r="W13">
-            <v>-81.341580067594791</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>5.5</v>
-          </cell>
-          <cell r="F14">
-            <v>-80.323499999999996</v>
-          </cell>
-          <cell r="W14">
-            <v>-81.989652599407748</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="F15">
-            <v>-92.888900000000007</v>
-          </cell>
-          <cell r="W15">
-            <v>-82.575905515385671</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>6.5</v>
-          </cell>
-          <cell r="F16">
-            <v>-87.391304347826093</v>
-          </cell>
-          <cell r="W16">
-            <v>-83.111112495250268</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>-77.916700000000006</v>
-          </cell>
-          <cell r="W17">
-            <v>-83.603455190151465</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>7.5</v>
-          </cell>
-          <cell r="F18">
-            <v>-87.175700000000006</v>
-          </cell>
-          <cell r="W18">
-            <v>-84.05929332687019</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>8</v>
-          </cell>
-          <cell r="F19">
-            <v>-94.633300000000006</v>
-          </cell>
-          <cell r="W19">
-            <v>-84.483668479387518</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>8.5</v>
-          </cell>
-          <cell r="F20">
-            <v>-84.464299999999994</v>
-          </cell>
-          <cell r="W20">
-            <v>-84.880644922905745</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>9</v>
-          </cell>
-          <cell r="F21">
-            <v>-84.967200000000005</v>
-          </cell>
-          <cell r="W21">
-            <v>-85.253546971699606</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>9.5</v>
-          </cell>
-          <cell r="F22">
-            <v>-83.536799999999999</v>
-          </cell>
-          <cell r="W22">
-            <v>-85.605128375230038</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>10</v>
-          </cell>
-          <cell r="F23">
-            <v>-81.675700000000006</v>
-          </cell>
-          <cell r="W23">
-            <v>-85.937695853264358</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>10.5</v>
-          </cell>
-          <cell r="F24">
-            <v>-90.476200000000006</v>
-          </cell>
-          <cell r="W24">
-            <v>-86.253200907043009</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>11</v>
-          </cell>
-          <cell r="F25">
-            <v>-87.953800000000001</v>
-          </cell>
-          <cell r="W25">
-            <v>-86.55330920684996</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>11.5</v>
-          </cell>
-          <cell r="F26">
-            <v>-84.3125</v>
-          </cell>
-          <cell r="W26">
-            <v>-86.839453823020918</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>12</v>
-          </cell>
-          <cell r="F27">
-            <v>-82.921099999999996</v>
-          </cell>
-          <cell r="W27">
-            <v>-87.112876614594825</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>12.5</v>
-          </cell>
-          <cell r="F28">
-            <v>-87.416700000000006</v>
-          </cell>
-          <cell r="W28">
-            <v>-87.374660802885515</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>13</v>
-          </cell>
-          <cell r="F29">
-            <v>-85.446799999999996</v>
-          </cell>
-          <cell r="W29">
-            <v>-87.625756891180259</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>13.5</v>
-          </cell>
-          <cell r="F30">
-            <v>-85.736800000000002</v>
-          </cell>
-          <cell r="W30">
-            <v>-87.867003497786712</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>14</v>
-          </cell>
-          <cell r="F31">
-            <v>-84.237300000000005</v>
-          </cell>
-          <cell r="W31">
-            <v>-88.099144255209808</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>14.5</v>
-          </cell>
-          <cell r="F32">
-            <v>-92.018500000000003</v>
-          </cell>
-          <cell r="W32">
-            <v>-88.322841634505437</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="W33">
-            <v>-88.538688342665111</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="moc-12stat"/>
-      <sheetName val="Arkusz1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="E2">
-            <v>0.3</v>
-          </cell>
-          <cell r="F2">
-            <v>-66</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>0.5</v>
-          </cell>
-          <cell r="F3">
-            <v>-72</v>
-          </cell>
-          <cell r="W3">
-            <v>-68.068493129877638</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>0.75</v>
-          </cell>
-          <cell r="F4">
-            <v>-75</v>
-          </cell>
-          <cell r="W4">
-            <v>-71.245317684086544</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>-73.657142857142858</v>
-          </cell>
-          <cell r="W5">
-            <v>-73.766905191417749</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1.5</v>
-          </cell>
-          <cell r="F6">
-            <v>-74.266666666666666</v>
-          </cell>
-          <cell r="W6">
-            <v>-75.555999999999997</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>2</v>
-          </cell>
-          <cell r="F7">
-            <v>-77.714285714285708</v>
-          </cell>
-          <cell r="W7">
-            <v>-78.077587507331188</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>2.5</v>
-          </cell>
-          <cell r="F8">
-            <v>-83.56</v>
-          </cell>
-          <cell r="W8">
-            <v>-79.866682315913451</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="F9">
-            <v>-89.928571428571431</v>
-          </cell>
-          <cell r="W9">
-            <v>-81.254412061540108</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>3.5</v>
-          </cell>
-          <cell r="F10">
-            <v>-84.8125</v>
-          </cell>
-          <cell r="W10">
-            <v>-82.388269823244642</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>4</v>
-          </cell>
-          <cell r="F11">
-            <v>-90.04</v>
-          </cell>
-          <cell r="W11">
-            <v>-83.346932901092842</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>4.5</v>
-          </cell>
-          <cell r="F12">
-            <v>-80.939393939393938</v>
-          </cell>
-          <cell r="W12">
-            <v>-84.17736463182689</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>5</v>
-          </cell>
-          <cell r="F13">
-            <v>-81.567567567567565</v>
-          </cell>
-          <cell r="W13">
-            <v>-84.909857330575832</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>5.5</v>
-          </cell>
-          <cell r="F14">
-            <v>-84.459459459459453</v>
-          </cell>
-          <cell r="W14">
-            <v>-85.565094377453548</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="F15">
-            <v>-90.962962962962962</v>
-          </cell>
-          <cell r="W15">
-            <v>-86.157828385658178</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>6.5</v>
-          </cell>
-          <cell r="F16">
-            <v>-88.875</v>
-          </cell>
-          <cell r="W16">
-            <v>-86.698952139158081</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>-81.941176470588232</v>
-          </cell>
-          <cell r="W17">
-            <v>-87.196737738181099</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>7.5</v>
-          </cell>
-          <cell r="F18">
-            <v>-90.936507936507937</v>
-          </cell>
-          <cell r="W18">
-            <v>-87.657615217006281</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>8</v>
-          </cell>
-          <cell r="F19">
-            <v>-96.333333333333329</v>
-          </cell>
-          <cell r="W19">
-            <v>-88.086681884784753</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>8.5</v>
-          </cell>
-          <cell r="F20">
-            <v>-88.35</v>
-          </cell>
-          <cell r="W20">
-            <v>-88.488046947740344</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>9</v>
-          </cell>
-          <cell r="F21">
-            <v>-88.918032786885249</v>
-          </cell>
-          <cell r="W21">
-            <v>-88.865071470817725</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>9.5</v>
-          </cell>
-          <cell r="F22">
-            <v>-87.260869565217391</v>
-          </cell>
-          <cell r="W22">
-            <v>-89.220539646489286</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>10</v>
-          </cell>
-          <cell r="F23">
-            <v>-85.955223880597018</v>
-          </cell>
-          <cell r="W23">
-            <v>-89.55678369556999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>10.5</v>
-          </cell>
-          <cell r="F24">
-            <v>-94.34210526315789</v>
-          </cell>
-          <cell r="W24">
-            <v>-89.875776693367001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>11</v>
-          </cell>
-          <cell r="F25">
-            <v>-91.833333333333329</v>
-          </cell>
-          <cell r="W25">
-            <v>-90.179202724337472</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>11.5</v>
-          </cell>
-          <cell r="F26">
-            <v>-88.84210526315789</v>
-          </cell>
-          <cell r="W26">
-            <v>-90.468510701571631</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>12</v>
-          </cell>
-          <cell r="F27">
-            <v>-87.38356164383562</v>
-          </cell>
-          <cell r="W27">
-            <v>-90.74495621300035</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>12.5</v>
-          </cell>
-          <cell r="F28">
-            <v>-91.513157894736835</v>
-          </cell>
-          <cell r="W28">
-            <v>-91.009634455071534</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>13</v>
-          </cell>
-          <cell r="F29">
-            <v>-89.641025641025635</v>
-          </cell>
-          <cell r="W29">
-            <v>-91.263506438993659</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>13.5</v>
-          </cell>
-          <cell r="F30">
-            <v>-89.75555555555556</v>
-          </cell>
-          <cell r="W30">
-            <v>-91.507420054094538</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>14</v>
-          </cell>
-          <cell r="F31">
-            <v>-88.316666666666663</v>
-          </cell>
-          <cell r="W31">
-            <v>-91.742127153820476</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>14.5</v>
-          </cell>
-          <cell r="F32">
-            <v>-95.982456140350877</v>
-          </cell>
-          <cell r="W32">
-            <v>-91.968297532919735</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="W33">
-            <v>-92.186530450826581</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="moc-16stat"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="E2">
-            <v>0.3</v>
-          </cell>
-          <cell r="F2">
-            <v>-70.272727272727266</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>0.5</v>
-          </cell>
-          <cell r="F3">
-            <v>-75.25</v>
-          </cell>
-          <cell r="W3">
-            <v>-72.046955334963357</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>0.75</v>
-          </cell>
-          <cell r="F4">
-            <v>-79.42307692307692</v>
-          </cell>
-          <cell r="W4">
-            <v>-75.190065398003625</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>-78</v>
-          </cell>
-          <cell r="W5">
-            <v>-77.684892208199614</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1.5</v>
-          </cell>
-          <cell r="F6">
-            <v>-78.5</v>
-          </cell>
-          <cell r="W6">
-            <v>-79.454999999999998</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>2</v>
-          </cell>
-          <cell r="F7">
-            <v>-81.095238095238102</v>
-          </cell>
-          <cell r="W7">
-            <v>-81.949826810195987</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>2.5</v>
-          </cell>
-          <cell r="F8">
-            <v>-87.222222222222229</v>
-          </cell>
-          <cell r="W8">
-            <v>-83.719934601996371</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="F9">
-            <v>-93.72</v>
-          </cell>
-          <cell r="W9">
-            <v>-85.092936873236255</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>3.5</v>
-          </cell>
-          <cell r="F10">
-            <v>-87.852941176470594</v>
-          </cell>
-          <cell r="W10">
-            <v>-86.21476141219236</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>4</v>
-          </cell>
-          <cell r="F11">
-            <v>-96.090909090909093</v>
-          </cell>
-          <cell r="W11">
-            <v>-87.163250545171934</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>4.5</v>
-          </cell>
-          <cell r="F12">
-            <v>-84.6875</v>
-          </cell>
-          <cell r="W12">
-            <v>-87.984869203992744</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>5</v>
-          </cell>
-          <cell r="F13">
-            <v>-85.78125</v>
-          </cell>
-          <cell r="W13">
-            <v>-88.709588222388348</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>5.5</v>
-          </cell>
-          <cell r="F14">
-            <v>-88.411764705882348</v>
-          </cell>
-          <cell r="W14">
-            <v>-89.357871475232628</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="F15">
-            <v>-92.6</v>
-          </cell>
-          <cell r="W15">
-            <v>-89.944315011570154</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>6.5</v>
-          </cell>
-          <cell r="F16">
-            <v>-90.892857142857139</v>
-          </cell>
-          <cell r="W16">
-            <v>-90.479696014188733</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>-85.6875</v>
-          </cell>
-          <cell r="W17">
-            <v>-90.972198794505275</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>7.5</v>
-          </cell>
-          <cell r="F18">
-            <v>-94.14</v>
-          </cell>
-          <cell r="W18">
-            <v>-91.428185147168307</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>8</v>
-          </cell>
-          <cell r="F19">
-            <v>-98.526315789473685</v>
-          </cell>
-          <cell r="W19">
-            <v>-91.852698285428616</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>8.5</v>
-          </cell>
-          <cell r="F20">
-            <v>-92.5</v>
-          </cell>
-          <cell r="W20">
-            <v>-92.249803805989117</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>9</v>
-          </cell>
-          <cell r="F21">
-            <v>-93.491803278688522</v>
-          </cell>
-          <cell r="W21">
-            <v>-92.622827104026598</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>9.5</v>
-          </cell>
-          <cell r="F22">
-            <v>-91.623655913978496</v>
-          </cell>
-          <cell r="W22">
-            <v>-92.974522824384707</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>10</v>
-          </cell>
-          <cell r="F23">
-            <v>-90.035714285714292</v>
-          </cell>
-          <cell r="W23">
-            <v>-93.307198436861583</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>10.5</v>
-          </cell>
-          <cell r="F24">
-            <v>-98.470588235294116</v>
-          </cell>
-          <cell r="W24">
-            <v>-93.622806077229001</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>11</v>
-          </cell>
-          <cell r="F25">
-            <v>-95.745098039215691</v>
-          </cell>
-          <cell r="W25">
-            <v>-93.923011957364281</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>11.5</v>
-          </cell>
-          <cell r="F26">
-            <v>-92.909090909090907</v>
-          </cell>
-          <cell r="W26">
-            <v>-94.209249613566527</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>12</v>
-          </cell>
-          <cell r="F27">
-            <v>-91.269230769230774</v>
-          </cell>
-          <cell r="W27">
-            <v>-94.482761308665573</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>12.5</v>
-          </cell>
-          <cell r="F28">
-            <v>-95.031746031746039</v>
-          </cell>
-          <cell r="W28">
-            <v>-94.744630616185106</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>13</v>
-          </cell>
-          <cell r="F29">
-            <v>-93.772727272727266</v>
-          </cell>
-          <cell r="W29">
-            <v>-94.995808348468884</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>13.5</v>
-          </cell>
-          <cell r="F30">
-            <v>-93.478260869565219</v>
-          </cell>
-          <cell r="W30">
-            <v>-95.237133396501648</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>14</v>
-          </cell>
-          <cell r="F31">
-            <v>-92.377358490566039</v>
-          </cell>
-          <cell r="W31">
-            <v>-95.469349634580695</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>14.5</v>
-          </cell>
-          <cell r="F32">
-            <v>-99.837837837837839</v>
-          </cell>
-          <cell r="W32">
-            <v>-95.693119749164666</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="W33">
-            <v>-95.909036639963972</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="moc-20stat"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="E2">
-            <v>0.3</v>
-          </cell>
-          <cell r="F2">
-            <v>-74</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>0.5</v>
-          </cell>
-          <cell r="F3">
-            <v>-79.486486486486484</v>
-          </cell>
-          <cell r="W3">
-            <v>-76.255629245369434</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>0.75</v>
-          </cell>
-          <cell r="F4">
-            <v>-83.321428571428569</v>
-          </cell>
-          <cell r="W4">
-            <v>-79.209223001992029</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>-81.590909090909093</v>
-          </cell>
-          <cell r="W5">
-            <v>-81.553622257079496</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>1.5</v>
-          </cell>
-          <cell r="F6">
-            <v>-82.214285714285708</v>
-          </cell>
-          <cell r="W6">
-            <v>-83.216999999999999</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>2</v>
-          </cell>
-          <cell r="F7">
-            <v>-85.224999999999994</v>
-          </cell>
-          <cell r="W7">
-            <v>-85.561399255087466</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>2.5</v>
-          </cell>
-          <cell r="F8">
-            <v>-91.222222222222229</v>
-          </cell>
-          <cell r="W8">
-            <v>-87.224776998007968</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>3</v>
-          </cell>
-          <cell r="F9">
-            <v>-97.090909090909093</v>
-          </cell>
-          <cell r="W9">
-            <v>-88.514993011710061</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>3.5</v>
-          </cell>
-          <cell r="F10">
-            <v>-92.083333333333329</v>
-          </cell>
-          <cell r="W10">
-            <v>-89.569176253095435</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>4</v>
-          </cell>
-          <cell r="F11">
-            <v>-98.214285714285708</v>
-          </cell>
-          <cell r="W11">
-            <v>-90.460475483858943</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>4.5</v>
-          </cell>
-          <cell r="F12">
-            <v>-88.09375</v>
-          </cell>
-          <cell r="W12">
-            <v>-91.232553996015938</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>5</v>
-          </cell>
-          <cell r="F13">
-            <v>-89.266666666666666</v>
-          </cell>
-          <cell r="W13">
-            <v>-91.913575508182902</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>5.5</v>
-          </cell>
-          <cell r="F14">
-            <v>-91.370370370370367</v>
-          </cell>
-          <cell r="W14">
-            <v>-92.52277000971803</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>6</v>
-          </cell>
-          <cell r="F15">
-            <v>-91.84615384615384</v>
-          </cell>
-          <cell r="W15">
-            <v>-93.073853469348066</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>6.5</v>
-          </cell>
-          <cell r="F16">
-            <v>-96.642857142857139</v>
-          </cell>
-          <cell r="W16">
-            <v>-93.576953251103404</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>-89.137931034482762</v>
-          </cell>
-          <cell r="W17">
-            <v>-94.039760186872982</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>7.5</v>
-          </cell>
-          <cell r="F18">
-            <v>-97.75</v>
-          </cell>
-          <cell r="W18">
-            <v>-94.468252481866912</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>8</v>
-          </cell>
-          <cell r="F19">
-            <v>-97.5</v>
-          </cell>
-          <cell r="W19">
-            <v>-94.867169264805497</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>8.5</v>
-          </cell>
-          <cell r="F20">
-            <v>-96.072727272727278</v>
-          </cell>
-          <cell r="W20">
-            <v>-95.240330994023907</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>9</v>
-          </cell>
-          <cell r="F21">
-            <v>-96.740740740740748</v>
-          </cell>
-          <cell r="W21">
-            <v>-95.59086255736743</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>9.5</v>
-          </cell>
-          <cell r="F22">
-            <v>-95.295454545454547</v>
-          </cell>
-          <cell r="W22">
-            <v>-95.921352506190871</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>10</v>
-          </cell>
-          <cell r="F23">
-            <v>-93.544117647058826</v>
-          </cell>
-          <cell r="W23">
-            <v>-96.233969179576405</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>10.5</v>
-          </cell>
-          <cell r="F24">
-            <v>-100.91666666666667</v>
-          </cell>
-          <cell r="W24">
-            <v>-96.530547007726</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>11</v>
-          </cell>
-          <cell r="F25">
-            <v>-99.268292682926827</v>
-          </cell>
-          <cell r="W25">
-            <v>-96.812651736954379</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>11.5</v>
-          </cell>
-          <cell r="F26">
-            <v>-96.882352941176464</v>
-          </cell>
-          <cell r="W26">
-            <v>-97.081630467356035</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>12</v>
-          </cell>
-          <cell r="F27">
-            <v>-94.634920634920633</v>
-          </cell>
-          <cell r="W27">
-            <v>-97.338650558541246</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>12.5</v>
-          </cell>
-          <cell r="F28">
-            <v>-98.075471698113205</v>
-          </cell>
-          <cell r="W28">
-            <v>-97.584730249111374</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>13</v>
-          </cell>
-          <cell r="F29">
-            <v>-97.843137254901961</v>
-          </cell>
-          <cell r="W29">
-            <v>-97.820763021428093</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>13.5</v>
-          </cell>
-          <cell r="F30">
-            <v>-96.9</v>
-          </cell>
-          <cell r="W30">
-            <v>-98.047537184880952</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>14</v>
-          </cell>
-          <cell r="F31">
-            <v>-95.983050847457633</v>
-          </cell>
-          <cell r="W31">
-            <v>-98.265751761278338</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="W32">
-            <v>-98.476029479874882</v>
           </cell>
         </row>
       </sheetData>
@@ -29867,7 +29264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
@@ -29887,624 +29284,624 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>4</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>5</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>7</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>8</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>9</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>10</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>11</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>3</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>4</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>5</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <v>6</v>
       </c>
-      <c r="S6" s="10">
+      <c r="S6" s="9">
         <v>7</v>
       </c>
-      <c r="T6" s="10">
+      <c r="T6" s="9">
         <v>8</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="9">
         <v>9</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="9">
         <v>10</v>
       </c>
-      <c r="W6" s="11">
+      <c r="W6" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>4</v>
       </c>
-      <c r="D7" s="6">
-        <f>'[11]Symulacja 1D'!$S$26</f>
+      <c r="D7" s="5">
+        <f>'[1]Symulacja 1D'!$S$26</f>
         <v>1.263143050722322</v>
       </c>
-      <c r="E7" s="6">
-        <f>'[11]Symulacja 1D'!$S$40</f>
+      <c r="E7" s="5">
+        <f>'[1]Symulacja 1D'!$S$40</f>
         <v>0.99992120117833516</v>
       </c>
-      <c r="F7" s="6">
-        <f>'[11]Symulacja 1D'!$S$57</f>
+      <c r="F7" s="5">
+        <f>'[1]Symulacja 1D'!$S$57</f>
         <v>1.4953657464095205</v>
       </c>
-      <c r="G7" s="6">
-        <f>'[11]Symulacja 1D'!$S$73</f>
+      <c r="G7" s="5">
+        <f>'[1]Symulacja 1D'!$S$73</f>
         <v>1.3241425104230853</v>
       </c>
-      <c r="H7" s="6">
-        <f>'[11]Symulacja 1D'!$S$89</f>
+      <c r="H7" s="5">
+        <f>'[1]Symulacja 1D'!$S$89</f>
         <v>1.9112868500853688</v>
       </c>
-      <c r="I7" s="6">
-        <f>'[11]Symulacja 1D'!$S$104</f>
+      <c r="I7" s="5">
+        <f>'[1]Symulacja 1D'!$S$104</f>
         <v>3.7378248027189311</v>
       </c>
-      <c r="J7" s="6">
-        <f>'[11]Symulacja 1D'!$S$122</f>
+      <c r="J7" s="5">
+        <f>'[1]Symulacja 1D'!$S$122</f>
         <v>4.2751477595905714</v>
       </c>
-      <c r="K7" s="6">
-        <f>'[11]Symulacja 1D'!$S$141</f>
+      <c r="K7" s="5">
+        <f>'[1]Symulacja 1D'!$S$141</f>
         <v>5.7964821724025022</v>
       </c>
-      <c r="L7" s="7">
-        <f>'[11]Symulacja 1D'!$S$162</f>
+      <c r="L7" s="6">
+        <f>'[1]Symulacja 1D'!$S$162</f>
         <v>5.3737615914035173</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="12">
         <v>4</v>
       </c>
-      <c r="O7" s="6">
-        <f>'[11]Symulacja 1D'!$S$28</f>
+      <c r="O7" s="5">
+        <f>'[1]Symulacja 1D'!$S$28</f>
         <v>0.41027396010385908</v>
       </c>
-      <c r="P7" s="6">
-        <f>'[11]Symulacja 1D'!$S$42</f>
+      <c r="P7" s="5">
+        <f>'[1]Symulacja 1D'!$S$42</f>
         <v>0.60457886120960791</v>
       </c>
-      <c r="Q7" s="6">
-        <f>'[11]Symulacja 1D'!$S$59</f>
+      <c r="Q7" s="5">
+        <f>'[1]Symulacja 1D'!$S$59</f>
         <v>1.0308939784338185</v>
       </c>
-      <c r="R7" s="6">
-        <f>'[11]Symulacja 1D'!$S$75</f>
+      <c r="R7" s="5">
+        <f>'[1]Symulacja 1D'!$S$75</f>
         <v>0.74004139884578657</v>
       </c>
-      <c r="S7" s="6">
-        <f>'[11]Symulacja 1D'!$S$91</f>
+      <c r="S7" s="5">
+        <f>'[1]Symulacja 1D'!$S$91</f>
         <v>0.81457586539492954</v>
       </c>
-      <c r="T7" s="6">
-        <f>'[11]Symulacja 1D'!$S$106</f>
+      <c r="T7" s="5">
+        <f>'[1]Symulacja 1D'!$S$106</f>
         <v>1.9318642312619458</v>
       </c>
-      <c r="U7" s="6">
-        <f>'[11]Symulacja 1D'!$S$124</f>
+      <c r="U7" s="5">
+        <f>'[1]Symulacja 1D'!$S$124</f>
         <v>2.1459610487677274</v>
       </c>
-      <c r="V7" s="6">
-        <f>'[11]Symulacja 1D'!$S$143</f>
+      <c r="V7" s="5">
+        <f>'[1]Symulacja 1D'!$S$143</f>
         <v>2.0000391056835194</v>
       </c>
-      <c r="W7" s="7">
-        <f>'[11]Symulacja 1D'!$S$164</f>
+      <c r="W7" s="6">
+        <f>'[1]Symulacja 1D'!$S$164</f>
         <v>1.9524462234226341</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
-        <f>'[12]Symulacja 1D'!$S$26</f>
+      <c r="D8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$26</f>
         <v>0.25755941233898927</v>
       </c>
-      <c r="E8" s="6">
-        <f>'[12]Symulacja 1D'!$S$40</f>
-        <v>0.9932597089930455</v>
-      </c>
-      <c r="F8" s="6">
-        <f>'[12]Symulacja 1D'!$S$57</f>
+      <c r="E8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$40</f>
+        <v>1.0242791950945691</v>
+      </c>
+      <c r="F8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$57</f>
         <v>1.3556295539109908</v>
       </c>
-      <c r="G8" s="6">
-        <f>'[12]Symulacja 1D'!$S$73</f>
+      <c r="G8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$73</f>
         <v>1.3556295539109908</v>
       </c>
-      <c r="H8" s="6">
-        <f>'[12]Symulacja 1D'!$S$89</f>
+      <c r="H8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$89</f>
         <v>0.86702956148198318</v>
       </c>
-      <c r="I8" s="6">
-        <f>'[12]Symulacja 1D'!$S$104</f>
-        <v>3.7226591153929736</v>
-      </c>
-      <c r="J8" s="6">
-        <f>'[12]Symulacja 1D'!$S$122</f>
-        <v>3.7226591153929736</v>
-      </c>
-      <c r="K8" s="6">
-        <f>'[12]Symulacja 1D'!$S$141</f>
-        <v>5.7835891119264895</v>
-      </c>
-      <c r="L8" s="7">
-        <f>'[12]Symulacja 1D'!$S$162</f>
-        <v>5.7835891119264895</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="I8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$104</f>
+        <v>3.722659115392974</v>
+      </c>
+      <c r="J8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$122</f>
+        <v>3.722659115392974</v>
+      </c>
+      <c r="K8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$141</f>
+        <v>5.8032462580224102</v>
+      </c>
+      <c r="L8" s="6">
+        <f ca="1">'[2]Symulacja 1D'!$S$162</f>
+        <v>5.8032462580224102</v>
+      </c>
+      <c r="N8" s="12">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
-        <f>'[12]Symulacja 1D'!$S$28</f>
-        <v>0.17294487601566294</v>
-      </c>
-      <c r="P8" s="6">
-        <f>'[12]Symulacja 1D'!$S$42</f>
-        <v>0.64660804430098695</v>
-      </c>
-      <c r="Q8" s="6">
-        <f>'[12]Symulacja 1D'!$S$59</f>
-        <v>0.71556967415843487</v>
-      </c>
-      <c r="R8" s="6">
-        <f>'[12]Symulacja 1D'!$S$75</f>
-        <v>0.93272717300044106</v>
-      </c>
-      <c r="S8" s="6">
-        <f>'[12]Symulacja 1D'!$S$91</f>
-        <v>0.58756256043011146</v>
-      </c>
-      <c r="T8" s="6">
-        <f>'[12]Symulacja 1D'!$S$106</f>
-        <v>2.0550639286694299</v>
-      </c>
-      <c r="U8" s="6">
-        <f>'[12]Symulacja 1D'!$S$124</f>
-        <v>1.6245315294501037</v>
-      </c>
-      <c r="V8" s="6">
-        <f>'[12]Symulacja 1D'!$S$143</f>
-        <v>1.6667689032869581</v>
-      </c>
-      <c r="W8" s="7">
-        <f>'[12]Symulacja 1D'!$S$164</f>
-        <v>2.577689918139709</v>
+      <c r="O8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$28</f>
+        <v>0.16997693490638127</v>
+      </c>
+      <c r="P8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$42</f>
+        <v>0.66128993692461202</v>
+      </c>
+      <c r="Q8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$59</f>
+        <v>0.71137665540808914</v>
+      </c>
+      <c r="R8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$75</f>
+        <v>0.92375504128057984</v>
+      </c>
+      <c r="S8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$91</f>
+        <v>0.59467912278591317</v>
+      </c>
+      <c r="T8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$106</f>
+        <v>2.0590772977661662</v>
+      </c>
+      <c r="U8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$124</f>
+        <v>1.621570103687106</v>
+      </c>
+      <c r="V8" s="5">
+        <f ca="1">'[2]Symulacja 1D'!$S$143</f>
+        <v>1.597095654494481</v>
+      </c>
+      <c r="W8" s="6">
+        <f ca="1">'[2]Symulacja 1D'!$S$164</f>
+        <v>2.5908660911635519</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>-4</v>
       </c>
-      <c r="D9" s="6">
-        <f>'[1]Symulacja 1D'!$S$26</f>
-        <v>0.22977683632714063</v>
-      </c>
-      <c r="E9" s="6">
-        <f>'[1]Symulacja 1D'!$S$40</f>
-        <v>0.90452856637155699</v>
-      </c>
-      <c r="F9" s="6">
-        <f>'[1]Symulacja 1D'!$S$57</f>
+      <c r="D9" s="5">
+        <f>'[3]Symulacja 1D'!$S$26</f>
+        <v>0.23183763052170381</v>
+      </c>
+      <c r="E9" s="5">
+        <f>'[3]Symulacja 1D'!$S$40</f>
+        <v>0.81900508303060926</v>
+      </c>
+      <c r="F9" s="5">
+        <f>'[3]Symulacja 1D'!$S$57</f>
         <v>1.3473230012292312</v>
       </c>
-      <c r="G9" s="6">
-        <f>'[1]Symulacja 1D'!$S$73</f>
+      <c r="G9" s="5">
+        <f>'[3]Symulacja 1D'!$S$73</f>
         <v>1.3473230012292312</v>
       </c>
-      <c r="H9" s="6">
-        <f>'[1]Symulacja 1D'!$S$89</f>
+      <c r="H9" s="5">
+        <f>'[3]Symulacja 1D'!$S$89</f>
         <v>0.913235268668255</v>
       </c>
-      <c r="I9" s="6">
-        <f>'[1]Symulacja 1D'!$S$104</f>
+      <c r="I9" s="5">
+        <f>'[3]Symulacja 1D'!$S$104</f>
         <v>3.7605582698974862</v>
       </c>
-      <c r="J9" s="6">
-        <f>'[1]Symulacja 1D'!$S$122</f>
+      <c r="J9" s="5">
+        <f>'[3]Symulacja 1D'!$S$122</f>
         <v>3.7605582698974862</v>
       </c>
-      <c r="K9" s="6">
-        <f>'[1]Symulacja 1D'!$S$141</f>
-        <v>5.7201693566275047</v>
-      </c>
-      <c r="L9" s="7">
-        <f>'[1]Symulacja 1D'!$S$162</f>
-        <v>4.8355562976279423</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="K9" s="5">
+        <f>'[3]Symulacja 1D'!$S$141</f>
+        <v>5.8375525384264826</v>
+      </c>
+      <c r="L9" s="6">
+        <f>'[3]Symulacja 1D'!$S$162</f>
+        <v>5.361717895014225</v>
+      </c>
+      <c r="N9" s="12">
         <v>-4</v>
       </c>
-      <c r="O9" s="6">
-        <f>'[1]Symulacja 1D'!$S$28</f>
-        <v>0.16895235962755151</v>
-      </c>
-      <c r="P9" s="6">
-        <f>'[1]Symulacja 1D'!$S$42</f>
-        <v>0.59707996081298964</v>
-      </c>
-      <c r="Q9" s="6">
-        <f>'[1]Symulacja 1D'!$S$59</f>
-        <v>0.67773788331705076</v>
-      </c>
-      <c r="R9" s="6">
-        <f>'[1]Symulacja 1D'!$S$75</f>
-        <v>0.93613150323705241</v>
-      </c>
-      <c r="S9" s="6">
-        <f>'[1]Symulacja 1D'!$S$91</f>
-        <v>0.59796058329480894</v>
-      </c>
-      <c r="T9" s="6">
-        <f>'[1]Symulacja 1D'!$S$106</f>
-        <v>2.054995490797368</v>
-      </c>
-      <c r="U9" s="6">
-        <f>'[1]Symulacja 1D'!$S$124</f>
-        <v>1.5814679154740872</v>
-      </c>
-      <c r="V9" s="6">
-        <f>'[1]Symulacja 1D'!$S$143</f>
-        <v>1.5152469552494383</v>
-      </c>
-      <c r="W9" s="7">
-        <f>'[1]Symulacja 1D'!$S$164</f>
-        <v>2.1998219316895344</v>
+      <c r="O9" s="5">
+        <f>'[3]Symulacja 1D'!$S$28</f>
+        <v>0.17053204104998487</v>
+      </c>
+      <c r="P9" s="5">
+        <f>'[3]Symulacja 1D'!$S$42</f>
+        <v>0.57053980577394137</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>'[3]Symulacja 1D'!$S$59</f>
+        <v>0.66047356532940471</v>
+      </c>
+      <c r="R9" s="5">
+        <f>'[3]Symulacja 1D'!$S$75</f>
+        <v>0.93900945827491167</v>
+      </c>
+      <c r="S9" s="5">
+        <f>'[3]Symulacja 1D'!$S$91</f>
+        <v>0.56480708337344765</v>
+      </c>
+      <c r="T9" s="5">
+        <f>'[3]Symulacja 1D'!$S$106</f>
+        <v>2.1196477475102982</v>
+      </c>
+      <c r="U9" s="5">
+        <f>'[3]Symulacja 1D'!$S$124</f>
+        <v>1.5722639893963664</v>
+      </c>
+      <c r="V9" s="5">
+        <f>'[3]Symulacja 1D'!$S$143</f>
+        <v>1.6015065721610517</v>
+      </c>
+      <c r="W9" s="6">
+        <f>'[3]Symulacja 1D'!$S$164</f>
+        <v>2.2149248816133302</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>-8</v>
       </c>
-      <c r="D10" s="6">
-        <f>'[13]Symulacja 1D'!$S$26</f>
+      <c r="D10" s="5">
+        <f>'[4]Symulacja 1D'!$S$26</f>
         <v>0.27623905096686685</v>
       </c>
-      <c r="E10" s="6">
-        <f>'[13]Symulacja 1D'!$S$40</f>
+      <c r="E10" s="5">
+        <f>'[4]Symulacja 1D'!$S$40</f>
         <v>1.0070733845591784</v>
       </c>
-      <c r="F10" s="6">
-        <f>'[13]Symulacja 1D'!$S$57</f>
+      <c r="F10" s="5">
+        <f>'[4]Symulacja 1D'!$S$57</f>
         <v>1.4202763512882211</v>
       </c>
-      <c r="G10" s="6">
-        <f>'[13]Symulacja 1D'!$S$73</f>
+      <c r="G10" s="5">
+        <f>'[4]Symulacja 1D'!$S$73</f>
         <v>1.4202763512882211</v>
       </c>
-      <c r="H10" s="6">
-        <f>'[13]Symulacja 1D'!$S$89</f>
+      <c r="H10" s="5">
+        <f>'[4]Symulacja 1D'!$S$89</f>
         <v>0.81461607104779921</v>
       </c>
-      <c r="I10" s="6">
-        <f>'[13]Symulacja 1D'!$S$104</f>
+      <c r="I10" s="5">
+        <f>'[4]Symulacja 1D'!$S$104</f>
         <v>3.7348924223360198</v>
       </c>
-      <c r="J10" s="6">
-        <f>'[13]Symulacja 1D'!$S$122</f>
+      <c r="J10" s="5">
+        <f>'[4]Symulacja 1D'!$S$122</f>
         <v>3.5240656322087918</v>
       </c>
-      <c r="K10" s="6">
-        <f>'[13]Symulacja 1D'!$S$141</f>
+      <c r="K10" s="5">
+        <f>'[4]Symulacja 1D'!$S$141</f>
         <v>5.7552936469504505</v>
       </c>
-      <c r="L10" s="7">
-        <f>'[13]Symulacja 1D'!$S$162</f>
+      <c r="L10" s="6">
+        <f>'[4]Symulacja 1D'!$S$162</f>
         <v>4.6076988476093161</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="12">
         <v>-8</v>
       </c>
-      <c r="O10" s="6">
-        <f>'[13]Symulacja 1D'!$S$28</f>
+      <c r="O10" s="5">
+        <f>'[4]Symulacja 1D'!$S$28</f>
         <v>0.20043903827307868</v>
       </c>
-      <c r="P10" s="6">
-        <f>'[13]Symulacja 1D'!$S$42</f>
+      <c r="P10" s="5">
+        <f>'[4]Symulacja 1D'!$S$42</f>
         <v>0.65303151649569735</v>
       </c>
-      <c r="Q10" s="6">
-        <f>'[13]Symulacja 1D'!$S$59</f>
+      <c r="Q10" s="5">
+        <f>'[4]Symulacja 1D'!$S$59</f>
         <v>0.82095993398041134</v>
       </c>
-      <c r="R10" s="6">
-        <f>'[13]Symulacja 1D'!$S$75</f>
+      <c r="R10" s="5">
+        <f>'[4]Symulacja 1D'!$S$75</f>
         <v>0.94022485635095465</v>
       </c>
-      <c r="S10" s="6">
-        <f>'[13]Symulacja 1D'!$S$91</f>
+      <c r="S10" s="5">
+        <f>'[4]Symulacja 1D'!$S$91</f>
         <v>0.56783577186789647</v>
       </c>
-      <c r="T10" s="6">
-        <f>'[13]Symulacja 1D'!$S$106</f>
+      <c r="T10" s="5">
+        <f>'[4]Symulacja 1D'!$S$106</f>
         <v>2.0582008490009871</v>
       </c>
-      <c r="U10" s="6">
-        <f>'[13]Symulacja 1D'!$S$124</f>
+      <c r="U10" s="5">
+        <f>'[4]Symulacja 1D'!$S$124</f>
         <v>1.5621073577830025</v>
       </c>
-      <c r="V10" s="6">
-        <f>'[13]Symulacja 1D'!$S$143</f>
+      <c r="V10" s="5">
+        <f>'[4]Symulacja 1D'!$S$143</f>
         <v>1.6153045045297778</v>
       </c>
-      <c r="W10" s="7">
-        <f>'[13]Symulacja 1D'!$S$164</f>
+      <c r="W10" s="6">
+        <f>'[4]Symulacja 1D'!$S$164</f>
         <v>2.3773160926102395</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>-12</v>
       </c>
-      <c r="D11" s="6">
-        <f>'[14]Symulacja 1D'!$S$26</f>
+      <c r="D11" s="5">
+        <f>'[5]Symulacja 1D'!$S$26</f>
         <v>0.21774469740559743</v>
       </c>
-      <c r="E11" s="6">
-        <f>'[14]Symulacja 1D'!$S$40</f>
+      <c r="E11" s="5">
+        <f>'[5]Symulacja 1D'!$S$40</f>
         <v>0.95017987624758926</v>
       </c>
-      <c r="F11" s="6">
-        <f>'[14]Symulacja 1D'!$S$57</f>
+      <c r="F11" s="5">
+        <f>'[5]Symulacja 1D'!$S$57</f>
         <v>1.2941815452197245</v>
       </c>
-      <c r="G11" s="6">
-        <f>'[14]Symulacja 1D'!$S$73</f>
+      <c r="G11" s="5">
+        <f>'[5]Symulacja 1D'!$S$73</f>
         <v>1.2941815452197245</v>
       </c>
-      <c r="H11" s="6">
-        <f>'[14]Symulacja 1D'!$S$89</f>
+      <c r="H11" s="5">
+        <f>'[5]Symulacja 1D'!$S$89</f>
         <v>0.94662175172040897</v>
       </c>
-      <c r="I11" s="6">
-        <f>'[14]Symulacja 1D'!$S$104</f>
+      <c r="I11" s="5">
+        <f>'[5]Symulacja 1D'!$S$104</f>
         <v>3.7408032969401335</v>
       </c>
-      <c r="J11" s="6">
-        <f>'[14]Symulacja 1D'!$S$122</f>
+      <c r="J11" s="5">
+        <f>'[5]Symulacja 1D'!$S$122</f>
         <v>3.7408032969401335</v>
       </c>
-      <c r="K11" s="6">
-        <f>'[14]Symulacja 1D'!$S$141</f>
+      <c r="K11" s="5">
+        <f>'[5]Symulacja 1D'!$S$141</f>
         <v>5.8192439448018245</v>
       </c>
-      <c r="L11" s="7">
-        <f>'[14]Symulacja 1D'!$S$162</f>
+      <c r="L11" s="6">
+        <f>'[5]Symulacja 1D'!$S$162</f>
         <v>5.371352249158547</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="12">
         <v>-12</v>
       </c>
-      <c r="O11" s="6">
-        <f>'[14]Symulacja 1D'!$S$28</f>
+      <c r="O11" s="5">
+        <f>'[5]Symulacja 1D'!$S$28</f>
         <v>0.13746923599240807</v>
       </c>
-      <c r="P11" s="6">
-        <f>'[14]Symulacja 1D'!$S$42</f>
+      <c r="P11" s="5">
+        <f>'[5]Symulacja 1D'!$S$42</f>
         <v>0.61959430966128115</v>
       </c>
-      <c r="Q11" s="6">
-        <f>'[14]Symulacja 1D'!$S$59</f>
+      <c r="Q11" s="5">
+        <f>'[5]Symulacja 1D'!$S$59</f>
         <v>0.72975053660788747</v>
       </c>
-      <c r="R11" s="6">
-        <f>'[14]Symulacja 1D'!$S$75</f>
+      <c r="R11" s="5">
+        <f>'[5]Symulacja 1D'!$S$75</f>
         <v>0.88719086064285213</v>
       </c>
-      <c r="S11" s="6">
-        <f>'[14]Symulacja 1D'!$S$91</f>
+      <c r="S11" s="5">
+        <f>'[5]Symulacja 1D'!$S$91</f>
         <v>0.55741252204453073</v>
       </c>
-      <c r="T11" s="6">
-        <f>'[14]Symulacja 1D'!$S$106</f>
+      <c r="T11" s="5">
+        <f>'[5]Symulacja 1D'!$S$106</f>
         <v>1.9867919453855212</v>
       </c>
-      <c r="U11" s="6">
-        <f>'[14]Symulacja 1D'!$S$124</f>
+      <c r="U11" s="5">
+        <f>'[5]Symulacja 1D'!$S$124</f>
         <v>1.6381874971161117</v>
       </c>
-      <c r="V11" s="6">
-        <f>'[14]Symulacja 1D'!$S$143</f>
+      <c r="V11" s="5">
+        <f>'[5]Symulacja 1D'!$S$143</f>
         <v>1.6421546956067858</v>
       </c>
-      <c r="W11" s="7">
-        <f>'[14]Symulacja 1D'!$S$164</f>
+      <c r="W11" s="6">
+        <f>'[5]Symulacja 1D'!$S$164</f>
         <v>2.1929769015530041</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>-16</v>
       </c>
-      <c r="D12" s="6">
-        <f>'[15]Symulacja 1D'!$S$26</f>
+      <c r="D12" s="5">
+        <f>'[6]Symulacja 1D'!$S$26</f>
         <v>0.27254268556440353</v>
       </c>
-      <c r="E12" s="6">
-        <f>'[15]Symulacja 1D'!$S$40</f>
+      <c r="E12" s="5">
+        <f>'[6]Symulacja 1D'!$S$40</f>
         <v>0.91331275958083147</v>
       </c>
-      <c r="F12" s="6">
-        <f>'[15]Symulacja 1D'!$S$57</f>
+      <c r="F12" s="5">
+        <f>'[6]Symulacja 1D'!$S$57</f>
         <v>1.3778379092206807</v>
       </c>
-      <c r="G12" s="6">
-        <f>'[15]Symulacja 1D'!$S$73</f>
+      <c r="G12" s="5">
+        <f>'[6]Symulacja 1D'!$S$73</f>
         <v>1.3778379092206807</v>
       </c>
-      <c r="H12" s="6">
-        <f>'[15]Symulacja 1D'!$S$89</f>
+      <c r="H12" s="5">
+        <f>'[6]Symulacja 1D'!$S$89</f>
         <v>0.74049681736179984</v>
       </c>
-      <c r="I12" s="6">
-        <f>'[15]Symulacja 1D'!$S$104</f>
+      <c r="I12" s="5">
+        <f>'[6]Symulacja 1D'!$S$104</f>
         <v>3.5977794180255671</v>
       </c>
-      <c r="J12" s="6">
-        <f>'[15]Symulacja 1D'!$S$122</f>
+      <c r="J12" s="5">
+        <f>'[6]Symulacja 1D'!$S$122</f>
         <v>3.5977794180255671</v>
       </c>
-      <c r="K12" s="6">
-        <f>'[15]Symulacja 1D'!$S$141</f>
+      <c r="K12" s="5">
+        <f>'[6]Symulacja 1D'!$S$141</f>
         <v>5.4648091041811888</v>
       </c>
-      <c r="L12" s="7">
-        <f>'[15]Symulacja 1D'!$S$162</f>
+      <c r="L12" s="6">
+        <f>'[6]Symulacja 1D'!$S$162</f>
         <v>5.6426250636500779</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="12">
         <v>-16</v>
       </c>
-      <c r="O12" s="6">
-        <f>'[15]Symulacja 1D'!$S$28</f>
+      <c r="O12" s="5">
+        <f>'[6]Symulacja 1D'!$S$28</f>
         <v>0.19250580338305734</v>
       </c>
-      <c r="P12" s="6">
-        <f>'[15]Symulacja 1D'!$S$42</f>
+      <c r="P12" s="5">
+        <f>'[6]Symulacja 1D'!$S$42</f>
         <v>0.58828568365318834</v>
       </c>
-      <c r="Q12" s="6">
-        <f>'[15]Symulacja 1D'!$S$59</f>
+      <c r="Q12" s="5">
+        <f>'[6]Symulacja 1D'!$S$59</f>
         <v>0.69493668621642823</v>
       </c>
-      <c r="R12" s="6">
-        <f>'[15]Symulacja 1D'!$S$75</f>
+      <c r="R12" s="5">
+        <f>'[6]Symulacja 1D'!$S$75</f>
         <v>0.89210093077010888</v>
       </c>
-      <c r="S12" s="6">
-        <f>'[15]Symulacja 1D'!$S$91</f>
+      <c r="S12" s="5">
+        <f>'[6]Symulacja 1D'!$S$91</f>
         <v>0.49554537691201983</v>
       </c>
-      <c r="T12" s="6">
-        <f>'[15]Symulacja 1D'!$S$106</f>
+      <c r="T12" s="5">
+        <f>'[6]Symulacja 1D'!$S$106</f>
         <v>1.9943561971855246</v>
       </c>
-      <c r="U12" s="6">
-        <f>'[15]Symulacja 1D'!$S$124</f>
+      <c r="U12" s="5">
+        <f>'[6]Symulacja 1D'!$S$124</f>
         <v>1.547391357071588</v>
       </c>
-      <c r="V12" s="6">
-        <f>'[15]Symulacja 1D'!$S$143</f>
+      <c r="V12" s="5">
+        <f>'[6]Symulacja 1D'!$S$143</f>
         <v>1.6817115418766784</v>
       </c>
-      <c r="W12" s="7">
-        <f>'[15]Symulacja 1D'!$S$164</f>
+      <c r="W12" s="6">
+        <f>'[6]Symulacja 1D'!$S$164</f>
         <v>2.2260947479778799</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>-20</v>
       </c>
-      <c r="D13" s="8">
-        <f>'[16]Symulacja 1D'!$S$26</f>
+      <c r="D13" s="7">
+        <f>'[7]Symulacja 1D'!$S$26</f>
         <v>0.24604404452580919</v>
       </c>
-      <c r="E13" s="8">
-        <f>'[16]Symulacja 1D'!$S$40</f>
+      <c r="E13" s="7">
+        <f>'[7]Symulacja 1D'!$S$40</f>
         <v>0.9118534357468554</v>
       </c>
-      <c r="F13" s="8">
-        <f>'[16]Symulacja 1D'!$S$57</f>
+      <c r="F13" s="7">
+        <f>'[7]Symulacja 1D'!$S$57</f>
         <v>1.3075237385457341</v>
       </c>
-      <c r="G13" s="8">
-        <f>'[16]Symulacja 1D'!$S$73</f>
+      <c r="G13" s="7">
+        <f>'[7]Symulacja 1D'!$S$73</f>
         <v>1.3075237385457341</v>
       </c>
-      <c r="H13" s="8">
-        <f>'[16]Symulacja 1D'!$S$89</f>
+      <c r="H13" s="7">
+        <f>'[7]Symulacja 1D'!$S$89</f>
         <v>0.84518084283289241</v>
       </c>
-      <c r="I13" s="8">
-        <f>'[16]Symulacja 1D'!$S$104</f>
+      <c r="I13" s="7">
+        <f>'[7]Symulacja 1D'!$S$104</f>
         <v>3.6406240012957705</v>
       </c>
-      <c r="J13" s="8">
-        <f>'[16]Symulacja 1D'!$S$122</f>
+      <c r="J13" s="7">
+        <f>'[7]Symulacja 1D'!$S$122</f>
         <v>3.7937653786483265</v>
       </c>
-      <c r="K13" s="8">
-        <f>'[16]Symulacja 1D'!$S$141</f>
+      <c r="K13" s="7">
+        <f>'[7]Symulacja 1D'!$S$141</f>
         <v>5.7314867371822835</v>
       </c>
-      <c r="L13" s="9">
-        <f>'[16]Symulacja 1D'!$S$162</f>
+      <c r="L13" s="8">
+        <f>'[7]Symulacja 1D'!$S$162</f>
         <v>5.7314867371822835</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>-20</v>
       </c>
-      <c r="O13" s="8">
-        <f>'[16]Symulacja 1D'!$S$28</f>
+      <c r="O13" s="7">
+        <f>'[7]Symulacja 1D'!$S$28</f>
         <v>0.15518579966957574</v>
       </c>
-      <c r="P13" s="8">
-        <f>'[16]Symulacja 1D'!$S$42</f>
+      <c r="P13" s="7">
+        <f>'[7]Symulacja 1D'!$S$42</f>
         <v>0.60655598819638146</v>
       </c>
-      <c r="Q13" s="8">
-        <f>'[16]Symulacja 1D'!$S$59</f>
+      <c r="Q13" s="7">
+        <f>'[7]Symulacja 1D'!$S$59</f>
         <v>0.73090406397545482</v>
       </c>
-      <c r="R13" s="8">
-        <f>'[16]Symulacja 1D'!$S$75</f>
+      <c r="R13" s="7">
+        <f>'[7]Symulacja 1D'!$S$75</f>
         <v>0.88190996756106865</v>
       </c>
-      <c r="S13" s="8">
-        <f>'[16]Symulacja 1D'!$S$91</f>
+      <c r="S13" s="7">
+        <f>'[7]Symulacja 1D'!$S$91</f>
         <v>0.55359635451489031</v>
       </c>
-      <c r="T13" s="8">
-        <f>'[16]Symulacja 1D'!$S$106</f>
+      <c r="T13" s="7">
+        <f>'[7]Symulacja 1D'!$S$106</f>
         <v>1.7391809129200821</v>
       </c>
-      <c r="U13" s="8">
-        <f>'[16]Symulacja 1D'!$S$124</f>
+      <c r="U13" s="7">
+        <f>'[7]Symulacja 1D'!$S$124</f>
         <v>2.0401907260831464</v>
       </c>
-      <c r="V13" s="8">
-        <f>'[16]Symulacja 1D'!$S$143</f>
+      <c r="V13" s="7">
+        <f>'[7]Symulacja 1D'!$S$143</f>
         <v>2.1549820255703822</v>
       </c>
-      <c r="W13" s="9">
-        <f>'[16]Symulacja 1D'!$S$164</f>
+      <c r="W13" s="8">
+        <f>'[7]Symulacja 1D'!$S$164</f>
         <v>1.9231132024765092</v>
       </c>
     </row>
@@ -30560,30 +29957,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="P2" s="5" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="P2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">

--- a/Praca Inżynierska/dane/excel/wspólne.xlsx
+++ b/Praca Inżynierska/dane/excel/wspólne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Symulacje" sheetId="3" r:id="rId1"/>
@@ -607,31 +607,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.17053204104998487</c:v>
+                  <c:v>0.17155247811021257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.57053980577394137</c:v>
+                  <c:v>0.56526894684519435</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66047356532940471</c:v>
+                  <c:v>0.62602464027144633</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93900945827491167</c:v>
+                  <c:v>0.93212228860539892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56480708337344765</c:v>
+                  <c:v>0.60066357399490189</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1196477475102982</c:v>
+                  <c:v>2.1864631319286518</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5722639893963664</c:v>
+                  <c:v>1.4806050116965355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6015065721610517</c:v>
+                  <c:v>1.5676448492740642</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2149248816133302</c:v>
+                  <c:v>2.1742844075784311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299120544"/>
-        <c:axId val="299120936"/>
+        <c:axId val="300029136"/>
+        <c:axId val="300029920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299120544"/>
+        <c:axId val="300029136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,12 +1185,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299120936"/>
+        <c:crossAx val="300029920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299120936"/>
+        <c:axId val="300029920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1303,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299120544"/>
+        <c:crossAx val="300029136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3064,11 +3064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319409216"/>
-        <c:axId val="319409608"/>
+        <c:axId val="299628336"/>
+        <c:axId val="299628728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319409216"/>
+        <c:axId val="299628336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,12 +3125,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319409608"/>
+        <c:crossAx val="299628728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319409608"/>
+        <c:axId val="299628728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3188,7 +3188,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319409216"/>
+        <c:crossAx val="299628336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6604,11 +6604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319410392"/>
-        <c:axId val="319410784"/>
+        <c:axId val="303181496"/>
+        <c:axId val="303181888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319410392"/>
+        <c:axId val="303181496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -6722,12 +6722,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319410784"/>
+        <c:crossAx val="303181888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319410784"/>
+        <c:axId val="303181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -6840,7 +6840,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319410392"/>
+        <c:crossAx val="303181496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6970,6 +6970,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7219,11 +7220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321842888"/>
-        <c:axId val="321843280"/>
+        <c:axId val="300030704"/>
+        <c:axId val="300031096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321842888"/>
+        <c:axId val="300030704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7342,13 +7343,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321843280"/>
+        <c:crossAx val="300031096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321843280"/>
+        <c:axId val="300031096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-50"/>
@@ -7469,7 +7470,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321842888"/>
+        <c:crossAx val="300030704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7483,6 +7484,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7589,6 +7591,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7838,11 +7841,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321844064"/>
-        <c:axId val="321844456"/>
+        <c:axId val="251004704"/>
+        <c:axId val="251005096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321844064"/>
+        <c:axId val="251004704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7890,6 +7893,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7953,12 +7957,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321844456"/>
+        <c:crossAx val="251005096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321844456"/>
+        <c:axId val="251005096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8009,6 +8013,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8072,7 +8077,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321844064"/>
+        <c:crossAx val="251004704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8086,6 +8091,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8200,6 +8206,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8433,11 +8440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321845240"/>
-        <c:axId val="321845632"/>
+        <c:axId val="251005880"/>
+        <c:axId val="299231712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321845240"/>
+        <c:axId val="251005880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8485,6 +8492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8548,13 +8556,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321845632"/>
+        <c:crossAx val="299231712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321845632"/>
+        <c:axId val="299231712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8600,6 +8608,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8663,7 +8672,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321845240"/>
+        <c:crossAx val="251005880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8677,6 +8686,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8791,6 +8801,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9030,11 +9041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="321846416"/>
-        <c:axId val="320308760"/>
+        <c:axId val="299232496"/>
+        <c:axId val="299232888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="321846416"/>
+        <c:axId val="299232496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -9082,6 +9093,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9145,13 +9157,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320308760"/>
+        <c:crossAx val="299232888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320308760"/>
+        <c:axId val="299232888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9202,6 +9214,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9265,7 +9278,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321846416"/>
+        <c:crossAx val="299232496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9279,6 +9292,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9390,6 +9404,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11195,11 +11210,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320309544"/>
-        <c:axId val="320309936"/>
+        <c:axId val="299233672"/>
+        <c:axId val="299234064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320309544"/>
+        <c:axId val="299233672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -11247,6 +11262,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11313,12 +11329,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320309936"/>
+        <c:crossAx val="299234064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320309936"/>
+        <c:axId val="299234064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-50"/>
@@ -11365,6 +11381,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11431,7 +11448,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320309544"/>
+        <c:crossAx val="299233672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13201,11 +13218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320310720"/>
-        <c:axId val="320311112"/>
+        <c:axId val="299234848"/>
+        <c:axId val="299235240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320310720"/>
+        <c:axId val="299234848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13262,12 +13279,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320311112"/>
+        <c:crossAx val="299235240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320311112"/>
+        <c:axId val="299235240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -13325,7 +13342,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320310720"/>
+        <c:crossAx val="299234848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13339,6 +13356,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16741,11 +16759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320311896"/>
-        <c:axId val="320312288"/>
+        <c:axId val="299625984"/>
+        <c:axId val="299626376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320311896"/>
+        <c:axId val="299625984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -16793,6 +16811,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16859,12 +16878,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320312288"/>
+        <c:crossAx val="299626376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320312288"/>
+        <c:axId val="299626376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -16911,6 +16930,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16977,7 +16997,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320311896"/>
+        <c:crossAx val="299625984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18857,11 +18877,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319408040"/>
-        <c:axId val="319408432"/>
+        <c:axId val="299627160"/>
+        <c:axId val="299627552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319408040"/>
+        <c:axId val="299627160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -18975,12 +18995,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319408432"/>
+        <c:crossAx val="299627552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319408432"/>
+        <c:axId val="299627552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -19093,7 +19113,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319408040"/>
+        <c:crossAx val="299627160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -27748,29 +27768,30 @@
       <sheetName val="moc-4"/>
       <sheetName val="Symulacja 1D"/>
       <sheetName val="Symulacja 2D"/>
+      <sheetName val="Symulacja 2D - pokój"/>
       <sheetName val="Określanie odległości"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="26">
           <cell r="S26">
-            <v>0.23183763052170381</v>
+            <v>0.22572173330840428</v>
           </cell>
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.17053204104998487</v>
+            <v>0.17155247811021257</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>0.81900508303060926</v>
+            <v>0.81227160653034591</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.57053980577394137</v>
+            <v>0.56526894684519435</v>
           </cell>
         </row>
         <row r="57">
@@ -27780,7 +27801,7 @@
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.66047356532940471</v>
+            <v>0.62602464027144633</v>
           </cell>
         </row>
         <row r="73">
@@ -27790,7 +27811,7 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.93900945827491167</v>
+            <v>0.93212228860539892</v>
           </cell>
         </row>
         <row r="89">
@@ -27800,7 +27821,7 @@
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.56480708337344765</v>
+            <v>0.60066357399490189</v>
           </cell>
         </row>
         <row r="104">
@@ -27810,42 +27831,43 @@
         </row>
         <row r="106">
           <cell r="S106">
-            <v>2.1196477475102982</v>
+            <v>2.1864631319286518</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>3.7605582698974862</v>
+            <v>3.3203387926242023</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.5722639893963664</v>
+            <v>1.4806050116965355</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.8375525384264826</v>
+            <v>5.8560418458526406</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.6015065721610517</v>
+            <v>1.5676448492740642</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>5.361717895014225</v>
+            <v>4.2799498793542199</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.2149248816133302</v>
+            <v>2.1742844075784311</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -29264,7 +29286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
@@ -29430,78 +29452,78 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$26</f>
+        <f>'[2]Symulacja 1D'!$S$26</f>
         <v>0.25755941233898927</v>
       </c>
       <c r="E8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$40</f>
+        <f>'[2]Symulacja 1D'!$S$40</f>
         <v>1.0242791950945691</v>
       </c>
       <c r="F8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$57</f>
+        <f>'[2]Symulacja 1D'!$S$57</f>
         <v>1.3556295539109908</v>
       </c>
       <c r="G8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$73</f>
+        <f>'[2]Symulacja 1D'!$S$73</f>
         <v>1.3556295539109908</v>
       </c>
       <c r="H8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$89</f>
+        <f>'[2]Symulacja 1D'!$S$89</f>
         <v>0.86702956148198318</v>
       </c>
       <c r="I8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$104</f>
+        <f>'[2]Symulacja 1D'!$S$104</f>
         <v>3.722659115392974</v>
       </c>
       <c r="J8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$122</f>
+        <f>'[2]Symulacja 1D'!$S$122</f>
         <v>3.722659115392974</v>
       </c>
       <c r="K8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$141</f>
+        <f>'[2]Symulacja 1D'!$S$141</f>
         <v>5.8032462580224102</v>
       </c>
       <c r="L8" s="6">
-        <f ca="1">'[2]Symulacja 1D'!$S$162</f>
+        <f>'[2]Symulacja 1D'!$S$162</f>
         <v>5.8032462580224102</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$28</f>
+        <f>'[2]Symulacja 1D'!$S$28</f>
         <v>0.16997693490638127</v>
       </c>
       <c r="P8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$42</f>
+        <f>'[2]Symulacja 1D'!$S$42</f>
         <v>0.66128993692461202</v>
       </c>
       <c r="Q8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$59</f>
+        <f>'[2]Symulacja 1D'!$S$59</f>
         <v>0.71137665540808914</v>
       </c>
       <c r="R8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$75</f>
+        <f>'[2]Symulacja 1D'!$S$75</f>
         <v>0.92375504128057984</v>
       </c>
       <c r="S8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$91</f>
+        <f>'[2]Symulacja 1D'!$S$91</f>
         <v>0.59467912278591317</v>
       </c>
       <c r="T8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$106</f>
+        <f>'[2]Symulacja 1D'!$S$106</f>
         <v>2.0590772977661662</v>
       </c>
       <c r="U8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$124</f>
+        <f>'[2]Symulacja 1D'!$S$124</f>
         <v>1.621570103687106</v>
       </c>
       <c r="V8" s="5">
-        <f ca="1">'[2]Symulacja 1D'!$S$143</f>
+        <f>'[2]Symulacja 1D'!$S$143</f>
         <v>1.597095654494481</v>
       </c>
       <c r="W8" s="6">
-        <f ca="1">'[2]Symulacja 1D'!$S$164</f>
+        <f>'[2]Symulacja 1D'!$S$164</f>
         <v>2.5908660911635519</v>
       </c>
     </row>
@@ -29510,79 +29532,79 @@
         <v>-4</v>
       </c>
       <c r="D9" s="5">
-        <f>'[3]Symulacja 1D'!$S$26</f>
-        <v>0.23183763052170381</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$26</f>
+        <v>0.22572173330840428</v>
       </c>
       <c r="E9" s="5">
-        <f>'[3]Symulacja 1D'!$S$40</f>
-        <v>0.81900508303060926</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$40</f>
+        <v>0.81227160653034591</v>
       </c>
       <c r="F9" s="5">
-        <f>'[3]Symulacja 1D'!$S$57</f>
+        <f ca="1">'[3]Symulacja 1D'!$S$57</f>
         <v>1.3473230012292312</v>
       </c>
       <c r="G9" s="5">
-        <f>'[3]Symulacja 1D'!$S$73</f>
+        <f ca="1">'[3]Symulacja 1D'!$S$73</f>
         <v>1.3473230012292312</v>
       </c>
       <c r="H9" s="5">
-        <f>'[3]Symulacja 1D'!$S$89</f>
+        <f ca="1">'[3]Symulacja 1D'!$S$89</f>
         <v>0.913235268668255</v>
       </c>
       <c r="I9" s="5">
-        <f>'[3]Symulacja 1D'!$S$104</f>
+        <f ca="1">'[3]Symulacja 1D'!$S$104</f>
         <v>3.7605582698974862</v>
       </c>
       <c r="J9" s="5">
-        <f>'[3]Symulacja 1D'!$S$122</f>
-        <v>3.7605582698974862</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$122</f>
+        <v>3.3203387926242023</v>
       </c>
       <c r="K9" s="5">
-        <f>'[3]Symulacja 1D'!$S$141</f>
-        <v>5.8375525384264826</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$141</f>
+        <v>5.8560418458526406</v>
       </c>
       <c r="L9" s="6">
-        <f>'[3]Symulacja 1D'!$S$162</f>
-        <v>5.361717895014225</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$162</f>
+        <v>4.2799498793542199</v>
       </c>
       <c r="N9" s="12">
         <v>-4</v>
       </c>
       <c r="O9" s="5">
-        <f>'[3]Symulacja 1D'!$S$28</f>
-        <v>0.17053204104998487</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$28</f>
+        <v>0.17155247811021257</v>
       </c>
       <c r="P9" s="5">
-        <f>'[3]Symulacja 1D'!$S$42</f>
-        <v>0.57053980577394137</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$42</f>
+        <v>0.56526894684519435</v>
       </c>
       <c r="Q9" s="5">
-        <f>'[3]Symulacja 1D'!$S$59</f>
-        <v>0.66047356532940471</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$59</f>
+        <v>0.62602464027144633</v>
       </c>
       <c r="R9" s="5">
-        <f>'[3]Symulacja 1D'!$S$75</f>
-        <v>0.93900945827491167</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$75</f>
+        <v>0.93212228860539892</v>
       </c>
       <c r="S9" s="5">
-        <f>'[3]Symulacja 1D'!$S$91</f>
-        <v>0.56480708337344765</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$91</f>
+        <v>0.60066357399490189</v>
       </c>
       <c r="T9" s="5">
-        <f>'[3]Symulacja 1D'!$S$106</f>
-        <v>2.1196477475102982</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$106</f>
+        <v>2.1864631319286518</v>
       </c>
       <c r="U9" s="5">
-        <f>'[3]Symulacja 1D'!$S$124</f>
-        <v>1.5722639893963664</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$124</f>
+        <v>1.4806050116965355</v>
       </c>
       <c r="V9" s="5">
-        <f>'[3]Symulacja 1D'!$S$143</f>
-        <v>1.6015065721610517</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$143</f>
+        <v>1.5676448492740642</v>
       </c>
       <c r="W9" s="6">
-        <f>'[3]Symulacja 1D'!$S$164</f>
-        <v>2.2149248816133302</v>
+        <f ca="1">'[3]Symulacja 1D'!$S$164</f>
+        <v>2.1742844075784311</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -29945,7 +29967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:W12"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>

--- a/Praca Inżynierska/dane/excel/wspólne.xlsx
+++ b/Praca Inżynierska/dane/excel/wspólne.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projekt_inz\Projekt_inz\Praca Inżynierska\dane\excel\"/>
@@ -399,31 +399,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.41027396010385908</c:v>
+                  <c:v>0.40718102130568623</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60457886120960791</c:v>
+                  <c:v>0.60249342557261587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0308939784338185</c:v>
+                  <c:v>1.0126961947410311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74004139884578657</c:v>
+                  <c:v>0.7073316394537652</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81457586539492954</c:v>
+                  <c:v>1.1789639208388458</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9318642312619458</c:v>
+                  <c:v>2.4078854466610298</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1459610487677274</c:v>
+                  <c:v>1.7962904634484194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0000391056835194</c:v>
+                  <c:v>1.7530252539543967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9524462234226341</c:v>
+                  <c:v>1.6592261551583825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,31 +503,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.16997693490638127</c:v>
+                  <c:v>0.16715056653126914</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66128993692461202</c:v>
+                  <c:v>0.62722186626556531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71137665540808914</c:v>
+                  <c:v>0.71283153183086467</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92375504128057984</c:v>
+                  <c:v>0.92512995199348314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59467912278591317</c:v>
+                  <c:v>0.55175647939507777</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0590772977661662</c:v>
+                  <c:v>2.0488986057679384</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.621570103687106</c:v>
+                  <c:v>1.6221779193625849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.597095654494481</c:v>
+                  <c:v>1.6353338802345114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5908660911635519</c:v>
+                  <c:v>2.4951576144199872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,31 +607,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.17155247811021257</c:v>
+                  <c:v>0.17321002015539783</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56526894684519435</c:v>
+                  <c:v>0.56899481042831346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62602464027144633</c:v>
+                  <c:v>0.63133817172272433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93212228860539892</c:v>
+                  <c:v>0.93101204650183766</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60066357399490189</c:v>
+                  <c:v>0.56322706900674202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1864631319286518</c:v>
+                  <c:v>2.0975569778923888</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4806050116965355</c:v>
+                  <c:v>1.4743967397337072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5676448492740642</c:v>
+                  <c:v>1.6101104239950503</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1742844075784311</c:v>
+                  <c:v>2.1629499391565008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -711,31 +711,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.20043903827307868</c:v>
+                  <c:v>0.20350119797451249</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65303151649569735</c:v>
+                  <c:v>0.62236708841069444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82095993398041134</c:v>
+                  <c:v>0.82754962126751186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94022485635095465</c:v>
+                  <c:v>0.93445286057318699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56783577186789647</c:v>
+                  <c:v>0.58551688516300726</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0582008490009871</c:v>
+                  <c:v>2.0705676929658781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5621073577830025</c:v>
+                  <c:v>1.5535665554655345</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6153045045297778</c:v>
+                  <c:v>1.6234999691680245</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3773160926102395</c:v>
+                  <c:v>2.2897046722479506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -815,31 +815,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.13746923599240807</c:v>
+                  <c:v>0.14049714369322719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61959430966128115</c:v>
+                  <c:v>0.60801341522073704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72975053660788747</c:v>
+                  <c:v>0.71293005031922652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88719086064285213</c:v>
+                  <c:v>0.87035996592710341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55741252204453073</c:v>
+                  <c:v>0.51890004370883869</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9867919453855212</c:v>
+                  <c:v>1.9740106427387745</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6381874971161117</c:v>
+                  <c:v>1.5500516048477111</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6421546956067858</c:v>
+                  <c:v>1.6540131967534251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1929769015530041</c:v>
+                  <c:v>2.3712239050777799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -919,31 +919,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.19250580338305734</c:v>
+                  <c:v>0.18276952618360998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58828568365318834</c:v>
+                  <c:v>0.58954084603422074</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.69493668621642823</c:v>
+                  <c:v>0.69633935426360571</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89210093077010888</c:v>
+                  <c:v>0.87968334113302948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49554537691201983</c:v>
+                  <c:v>0.54240634844679125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9943561971855246</c:v>
+                  <c:v>1.9843549105106473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.547391357071588</c:v>
+                  <c:v>1.7676409525821755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6817115418766784</c:v>
+                  <c:v>1.8863652092100021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.2260947479778799</c:v>
+                  <c:v>2.1857258688536128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,31 +1029,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.15518579966957574</c:v>
+                  <c:v>0.14769878402868353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60655598819638146</c:v>
+                  <c:v>0.66568712478301462</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73090406397545482</c:v>
+                  <c:v>0.78409834633242992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88190996756106865</c:v>
+                  <c:v>0.85686295076200325</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55359635451489031</c:v>
+                  <c:v>0.55556396348289971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7391809129200821</c:v>
+                  <c:v>1.6675497439282654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0401907260831464</c:v>
+                  <c:v>1.9746341886895042</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1549820255703822</c:v>
+                  <c:v>2.1132336883461522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9231132024765092</c:v>
+                  <c:v>1.9522083700586794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,11 +1068,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300029136"/>
-        <c:axId val="300029920"/>
+        <c:axId val="415633944"/>
+        <c:axId val="415634336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300029136"/>
+        <c:axId val="415633944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,12 +1185,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300029920"/>
+        <c:crossAx val="415634336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300029920"/>
+        <c:axId val="415634336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1303,7 +1303,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300029136"/>
+        <c:crossAx val="415633944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3064,11 +3064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299628336"/>
-        <c:axId val="299628728"/>
+        <c:axId val="647761592"/>
+        <c:axId val="456767384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299628336"/>
+        <c:axId val="647761592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,12 +3125,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299628728"/>
+        <c:crossAx val="456767384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299628728"/>
+        <c:axId val="456767384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -3188,7 +3188,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299628336"/>
+        <c:crossAx val="647761592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3202,6 +3202,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0227306109452585E-2"/>
+          <c:y val="0.93450943337965109"/>
+          <c:w val="0.89954524363821808"/>
+          <c:h val="5.2941547012505787E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6604,11 +6614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="303181496"/>
-        <c:axId val="303181888"/>
+        <c:axId val="456768168"/>
+        <c:axId val="456768560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="303181496"/>
+        <c:axId val="456768168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -6656,6 +6666,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6722,12 +6733,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303181888"/>
+        <c:crossAx val="456768560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="303181888"/>
+        <c:axId val="456768560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -6774,6 +6785,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6840,7 +6852,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303181496"/>
+        <c:crossAx val="456768168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6864,6 +6876,589 @@
           <c:h val="4.4787493668554591E-2"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Moc -4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[10]moc-4stat'!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[10]moc-4stat'!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-59.310344827586206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-64.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-66.620689655172413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-67.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-83.129032258064512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-76.617647058823536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-81.196078431372555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-73.41935483870968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-76.766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-83.60526315789474</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-84.407407407407405</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-73.892857142857139</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-83.822916666666671</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-91.464646464646464</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-81.431818181818187</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-82.359375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-80.696629213483149</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-78.464788732394368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-87</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-84.660714285714292</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-81.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-79.828947368421055</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-84.109589041095887</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-82.128205128205124</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-82</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-81</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-89.075757575757578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="381683992"/>
+        <c:axId val="833992192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="381683992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Odległość [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="833992192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833992192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="-55"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>RSSI [dBm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381683992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7220,11 +7815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300030704"/>
-        <c:axId val="300031096"/>
+        <c:axId val="597727520"/>
+        <c:axId val="597727912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300030704"/>
+        <c:axId val="597727520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7343,13 +7938,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300031096"/>
+        <c:crossAx val="597727912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300031096"/>
+        <c:axId val="597727912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-50"/>
@@ -7470,7 +8065,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300030704"/>
+        <c:crossAx val="597727520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7841,11 +8436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251004704"/>
-        <c:axId val="251005096"/>
+        <c:axId val="597728696"/>
+        <c:axId val="597729088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251004704"/>
+        <c:axId val="597728696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -7957,12 +8552,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251005096"/>
+        <c:crossAx val="597729088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="251005096"/>
+        <c:axId val="597729088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,7 +8672,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251004704"/>
+        <c:crossAx val="597728696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8440,11 +9035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="251005880"/>
-        <c:axId val="299231712"/>
+        <c:axId val="385254848"/>
+        <c:axId val="385255240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="251005880"/>
+        <c:axId val="385254848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -8556,13 +9151,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299231712"/>
+        <c:crossAx val="385255240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299231712"/>
+        <c:axId val="385255240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8672,7 +9267,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="251005880"/>
+        <c:crossAx val="385254848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9041,11 +9636,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299232496"/>
-        <c:axId val="299232888"/>
+        <c:axId val="385256024"/>
+        <c:axId val="623065952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299232496"/>
+        <c:axId val="385256024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -9157,13 +9752,13 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299232888"/>
+        <c:crossAx val="623065952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299232888"/>
+        <c:axId val="623065952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9278,7 +9873,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299232496"/>
+        <c:crossAx val="385256024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11210,11 +11805,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299233672"/>
-        <c:axId val="299234064"/>
+        <c:axId val="623066736"/>
+        <c:axId val="623067128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299233672"/>
+        <c:axId val="623066736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -11329,12 +11924,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299234064"/>
+        <c:crossAx val="623067128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299234064"/>
+        <c:axId val="623067128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-50"/>
@@ -11448,7 +12043,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299233672"/>
+        <c:crossAx val="623066736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13218,11 +13813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299234848"/>
-        <c:axId val="299235240"/>
+        <c:axId val="521990840"/>
+        <c:axId val="521991232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299234848"/>
+        <c:axId val="521990840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13279,12 +13874,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299235240"/>
+        <c:crossAx val="521991232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299235240"/>
+        <c:axId val="521991232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -13342,7 +13937,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299234848"/>
+        <c:crossAx val="521990840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16759,11 +17354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299625984"/>
-        <c:axId val="299626376"/>
+        <c:axId val="521992016"/>
+        <c:axId val="521992408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299625984"/>
+        <c:axId val="521992016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -16878,12 +17473,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299626376"/>
+        <c:crossAx val="521992408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299626376"/>
+        <c:axId val="521992408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -16997,7 +17592,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299625984"/>
+        <c:crossAx val="521992016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17103,7 +17698,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1477951388888895E-2"/>
+          <c:y val="3.8805555555555558E-2"/>
+          <c:w val="0.8742144097222222"/>
+          <c:h val="0.80568944444444446"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -18777,98 +19382,6 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:v>Moc -30</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'[15]moc-30stat'!$E$2:$E$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'[15]moc-30stat'!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>-88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-93.52</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-96.692307692307693</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-94.892857142857139</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-98.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -18877,11 +19390,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="299627160"/>
-        <c:axId val="299627552"/>
+        <c:axId val="647760416"/>
+        <c:axId val="647760808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="299627160"/>
+        <c:axId val="647760416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15"/>
@@ -18929,6 +19442,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -18995,12 +19509,12 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299627552"/>
+        <c:crossAx val="647760808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="299627552"/>
+        <c:axId val="647760808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-55"/>
@@ -19042,11 +19556,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>RSSI</a:t>
+                  <a:t>RSSI [dBm]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.3229166666666667E-2"/>
+              <c:y val="0.34425722222222221"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19113,7 +19635,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="299627160"/>
+        <c:crossAx val="647760416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19127,16 +19649,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.25441708071674413"/>
-          <c:y val="0.95521269092464767"/>
-          <c:w val="0.4911658385665118"/>
-          <c:h val="3.3039878825719474E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19284,6 +19797,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21179,6 +21732,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -25567,16 +26636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>159123</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>331693</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>63873</xdr:rowOff>
+      <xdr:colOff>292650</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>72948</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25599,16 +26668,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>530598</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>178171</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244848</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>54346</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152959</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>35296</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476809</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25661,6 +26730,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>302175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47175</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -25678,12 +26779,12 @@
       <sheetData sheetId="2">
         <row r="26">
           <cell r="S26">
-            <v>1.263143050722322</v>
+            <v>1.2645743827666311</v>
           </cell>
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.41027396010385908</v>
+            <v>0.40718102130568623</v>
           </cell>
         </row>
         <row r="40">
@@ -25693,17 +26794,17 @@
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.60457886120960791</v>
+            <v>0.60249342557261587</v>
           </cell>
         </row>
         <row r="57">
           <cell r="S57">
-            <v>1.4953657464095205</v>
+            <v>1.4641938831705317</v>
           </cell>
         </row>
         <row r="59">
           <cell r="S59">
-            <v>1.0308939784338185</v>
+            <v>1.0126961947410311</v>
           </cell>
         </row>
         <row r="73">
@@ -25713,17 +26814,17 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.74004139884578657</v>
+            <v>0.7073316394537652</v>
           </cell>
         </row>
         <row r="89">
           <cell r="S89">
-            <v>1.9112868500853688</v>
+            <v>3.4897463724416249</v>
           </cell>
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.81457586539492954</v>
+            <v>1.1789639208388458</v>
           </cell>
         </row>
         <row r="104">
@@ -25733,17 +26834,17 @@
         </row>
         <row r="106">
           <cell r="S106">
-            <v>1.9318642312619458</v>
+            <v>2.4078854466610298</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>4.2751477595905714</v>
+            <v>4.1350810542002696</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>2.1459610487677274</v>
+            <v>1.7962904634484194</v>
           </cell>
         </row>
         <row r="141">
@@ -25753,17 +26854,17 @@
         </row>
         <row r="143">
           <cell r="S143">
-            <v>2.0000391056835194</v>
+            <v>1.7530252539543967</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>5.3737615914035173</v>
+            <v>4.5690435994960783</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>1.9524462234226341</v>
+            <v>1.6592261551583825</v>
           </cell>
         </row>
       </sheetData>
@@ -25781,8 +26882,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
-          <cell r="F1" t="str">
-            <v>RSSI po odsianiu</v>
+          <cell r="C1" t="str">
+            <v>RSSI</v>
           </cell>
         </row>
         <row r="2">
@@ -27672,17 +28773,17 @@
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.16997693490638127</v>
+            <v>0.16715056653126914</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>1.0242791950945691</v>
+            <v>0.93271645679821713</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.66128993692461202</v>
+            <v>0.62722186626556531</v>
           </cell>
         </row>
         <row r="57">
@@ -27692,7 +28793,7 @@
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.71137665540808914</v>
+            <v>0.71283153183086467</v>
           </cell>
         </row>
         <row r="73">
@@ -27702,57 +28803,57 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.92375504128057984</v>
+            <v>0.92512995199348314</v>
           </cell>
         </row>
         <row r="89">
           <cell r="S89">
-            <v>0.86702956148198318</v>
+            <v>0.88767133362427186</v>
           </cell>
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.59467912278591317</v>
+            <v>0.55175647939507777</v>
           </cell>
         </row>
         <row r="104">
           <cell r="S104">
-            <v>3.722659115392974</v>
+            <v>3.7433008875352627</v>
           </cell>
         </row>
         <row r="106">
           <cell r="S106">
-            <v>2.0590772977661662</v>
+            <v>2.0488986057679384</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>3.722659115392974</v>
+            <v>3.7433008875352627</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.621570103687106</v>
+            <v>1.6221779193625849</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.8032462580224102</v>
+            <v>5.7636090895536221</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.597095654494481</v>
+            <v>1.6353338802345114</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>5.8032462580224102</v>
+            <v>5.7636090895536221</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.5908660911635519</v>
+            <v>2.4951576144199872</v>
           </cell>
         </row>
       </sheetData>
@@ -27776,22 +28877,22 @@
       <sheetData sheetId="1">
         <row r="26">
           <cell r="S26">
-            <v>0.22572173330840428</v>
+            <v>0.23407487070028399</v>
           </cell>
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.17155247811021257</v>
+            <v>0.17321002015539783</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>0.81227160653034591</v>
+            <v>0.80454662980220615</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.56526894684519435</v>
+            <v>0.56899481042831346</v>
           </cell>
         </row>
         <row r="57">
@@ -27801,7 +28902,7 @@
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.62602464027144633</v>
+            <v>0.63133817172272433</v>
           </cell>
         </row>
         <row r="73">
@@ -27811,7 +28912,7 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.93212228860539892</v>
+            <v>0.93101204650183766</v>
           </cell>
         </row>
         <row r="89">
@@ -27821,7 +28922,7 @@
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.60066357399490189</v>
+            <v>0.56322706900674202</v>
           </cell>
         </row>
         <row r="104">
@@ -27831,37 +28932,37 @@
         </row>
         <row r="106">
           <cell r="S106">
-            <v>2.1864631319286518</v>
+            <v>2.0975569778923888</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>3.3203387926242023</v>
+            <v>3.007583176536488</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.4806050116965355</v>
+            <v>1.4743967397337072</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.8560418458526406</v>
+            <v>5.7996725892799272</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.5676448492740642</v>
+            <v>1.6101104239950503</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>4.2799498793542199</v>
+            <v>4.046697495918929</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.1742844075784311</v>
+            <v>2.1629499391565008</v>
           </cell>
         </row>
       </sheetData>
@@ -27892,17 +28993,17 @@
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.20043903827307868</v>
+            <v>0.20350119797451249</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>1.0070733845591784</v>
+            <v>0.94630410652711872</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.65303151649569735</v>
+            <v>0.62236708841069444</v>
           </cell>
         </row>
         <row r="57">
@@ -27912,7 +29013,7 @@
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.82095993398041134</v>
+            <v>0.82754962126751186</v>
           </cell>
         </row>
         <row r="73">
@@ -27922,7 +29023,7 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.94022485635095465</v>
+            <v>0.93445286057318699</v>
           </cell>
         </row>
         <row r="89">
@@ -27932,7 +29033,7 @@
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.56783577186789647</v>
+            <v>0.58551688516300726</v>
           </cell>
         </row>
         <row r="104">
@@ -27942,37 +29043,37 @@
         </row>
         <row r="106">
           <cell r="S106">
-            <v>2.0582008490009871</v>
+            <v>2.0705676929658781</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>3.5240656322087918</v>
+            <v>3.7348924223360198</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.5621073577830025</v>
+            <v>1.5535665554655345</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.7552936469504505</v>
+            <v>5.8336612549081526</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.6153045045297778</v>
+            <v>1.6234999691680245</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>4.6076988476093161</v>
+            <v>5.3324557095366103</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.3773160926102395</v>
+            <v>2.2897046722479506</v>
           </cell>
         </row>
       </sheetData>
@@ -28000,17 +29101,17 @@
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.13746923599240807</v>
+            <v>0.14049714369322719</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>0.95017987624758926</v>
+            <v>0.89797393151577376</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.61959430966128115</v>
+            <v>0.60801341522073704</v>
           </cell>
         </row>
         <row r="57">
@@ -28020,7 +29121,7 @@
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.72975053660788747</v>
+            <v>0.71293005031922652</v>
           </cell>
         </row>
         <row r="73">
@@ -28030,57 +29131,57 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.88719086064285213</v>
+            <v>0.87035996592710341</v>
           </cell>
         </row>
         <row r="89">
           <cell r="S89">
-            <v>0.94662175172040897</v>
+            <v>0.9054684124269059</v>
           </cell>
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.55741252204453073</v>
+            <v>0.51890004370883869</v>
           </cell>
         </row>
         <row r="104">
           <cell r="S104">
-            <v>3.7408032969401335</v>
+            <v>3.6996499576466308</v>
           </cell>
         </row>
         <row r="106">
           <cell r="S106">
-            <v>1.9867919453855212</v>
+            <v>1.9740106427387745</v>
           </cell>
         </row>
         <row r="122">
           <cell r="S122">
-            <v>3.7408032969401335</v>
+            <v>3.6996499576466308</v>
           </cell>
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.6381874971161117</v>
+            <v>1.5500516048477111</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.8192439448018245</v>
+            <v>5.5965977653531844</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.6421546956067858</v>
+            <v>1.6540131967534251</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>5.371352249158547</v>
+            <v>5.4728075534839604</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.1929769015530041</v>
+            <v>2.3712239050777799</v>
           </cell>
         </row>
       </sheetData>
@@ -28103,52 +29204,52 @@
       <sheetData sheetId="2">
         <row r="26">
           <cell r="S26">
-            <v>0.27254268556440353</v>
+            <v>0.25198737700748941</v>
           </cell>
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.19250580338305734</v>
+            <v>0.18276952618360998</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>0.91331275958083147</v>
+            <v>0.89052891462924855</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.58828568365318834</v>
+            <v>0.58954084603422074</v>
           </cell>
         </row>
         <row r="57">
           <cell r="S57">
-            <v>1.3778379092206807</v>
+            <v>1.3572826006637668</v>
           </cell>
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.69493668621642823</v>
+            <v>0.69633935426360571</v>
           </cell>
         </row>
         <row r="73">
           <cell r="S73">
-            <v>1.3778379092206807</v>
+            <v>1.3572826006637668</v>
           </cell>
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.89210093077010888</v>
+            <v>0.87968334113302948</v>
           </cell>
         </row>
         <row r="89">
           <cell r="S89">
-            <v>0.74049681736179984</v>
+            <v>0.76173124268929815</v>
           </cell>
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.49554537691201983</v>
+            <v>0.54240634844679125</v>
           </cell>
         </row>
         <row r="104">
@@ -28158,7 +29259,7 @@
         </row>
         <row r="106">
           <cell r="S106">
-            <v>1.9943561971855246</v>
+            <v>1.9843549105106473</v>
           </cell>
         </row>
         <row r="122">
@@ -28168,27 +29269,27 @@
         </row>
         <row r="124">
           <cell r="S124">
-            <v>1.547391357071588</v>
+            <v>1.7676409525821755</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.4648091041811888</v>
+            <v>5.7502403427912725</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>1.6817115418766784</v>
+            <v>1.8863652092100021</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>5.6426250636500779</v>
+            <v>5.7687385258473007</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>2.2260947479778799</v>
+            <v>2.1857258688536128</v>
           </cell>
         </row>
       </sheetData>
@@ -28211,22 +29312,22 @@
       <sheetData sheetId="2">
         <row r="26">
           <cell r="S26">
-            <v>0.24604404452580919</v>
+            <v>0.25467821888436415</v>
           </cell>
         </row>
         <row r="28">
           <cell r="S28">
-            <v>0.15518579966957574</v>
+            <v>0.14769878402868353</v>
           </cell>
         </row>
         <row r="40">
           <cell r="S40">
-            <v>0.9118534357468554</v>
+            <v>1.0658858532817144</v>
           </cell>
         </row>
         <row r="42">
           <cell r="S42">
-            <v>0.60655598819638146</v>
+            <v>0.66568712478301462</v>
           </cell>
         </row>
         <row r="57">
@@ -28236,7 +29337,7 @@
         </row>
         <row r="59">
           <cell r="S59">
-            <v>0.73090406397545482</v>
+            <v>0.78409834633242992</v>
           </cell>
         </row>
         <row r="73">
@@ -28246,17 +29347,17 @@
         </row>
         <row r="75">
           <cell r="S75">
-            <v>0.88190996756106865</v>
+            <v>0.85686295076200325</v>
           </cell>
         </row>
         <row r="89">
           <cell r="S89">
-            <v>0.84518084283289241</v>
+            <v>0.86997793417830582</v>
           </cell>
         </row>
         <row r="91">
           <cell r="S91">
-            <v>0.55359635451489031</v>
+            <v>0.55556396348289971</v>
           </cell>
         </row>
         <row r="104">
@@ -28266,7 +29367,7 @@
         </row>
         <row r="106">
           <cell r="S106">
-            <v>1.7391809129200821</v>
+            <v>1.6675497439282654</v>
           </cell>
         </row>
         <row r="122">
@@ -28276,27 +29377,27 @@
         </row>
         <row r="124">
           <cell r="S124">
-            <v>2.0401907260831464</v>
+            <v>1.9746341886895042</v>
           </cell>
         </row>
         <row r="141">
           <cell r="S141">
-            <v>5.7314867371822835</v>
+            <v>5.517839177716521</v>
           </cell>
         </row>
         <row r="143">
           <cell r="S143">
-            <v>2.1549820255703822</v>
+            <v>2.1132336883461522</v>
           </cell>
         </row>
         <row r="162">
           <cell r="S162">
-            <v>5.7314867371822835</v>
+            <v>5.517839177716521</v>
           </cell>
         </row>
         <row r="164">
           <cell r="S164">
-            <v>1.9231132024765092</v>
+            <v>1.9522083700586794</v>
           </cell>
         </row>
       </sheetData>
@@ -29024,7 +30125,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Niestandardowy 1">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -29038,10 +30139,10 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="FF3F3F"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="00BC55"/>
       </a:accent2>
       <a:accent3>
         <a:srgbClr val="A5A5A5"/>
@@ -29286,7 +30387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
@@ -29372,79 +30473,79 @@
         <v>4</v>
       </c>
       <c r="D7" s="5">
-        <f>'[1]Symulacja 1D'!$S$26</f>
-        <v>1.263143050722322</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$26</f>
+        <v>1.2645743827666311</v>
       </c>
       <c r="E7" s="5">
-        <f>'[1]Symulacja 1D'!$S$40</f>
+        <f ca="1">'[1]Symulacja 1D'!$S$40</f>
         <v>0.99992120117833516</v>
       </c>
       <c r="F7" s="5">
-        <f>'[1]Symulacja 1D'!$S$57</f>
-        <v>1.4953657464095205</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$57</f>
+        <v>1.4641938831705317</v>
       </c>
       <c r="G7" s="5">
-        <f>'[1]Symulacja 1D'!$S$73</f>
+        <f ca="1">'[1]Symulacja 1D'!$S$73</f>
         <v>1.3241425104230853</v>
       </c>
       <c r="H7" s="5">
-        <f>'[1]Symulacja 1D'!$S$89</f>
-        <v>1.9112868500853688</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$89</f>
+        <v>3.4897463724416249</v>
       </c>
       <c r="I7" s="5">
-        <f>'[1]Symulacja 1D'!$S$104</f>
+        <f ca="1">'[1]Symulacja 1D'!$S$104</f>
         <v>3.7378248027189311</v>
       </c>
       <c r="J7" s="5">
-        <f>'[1]Symulacja 1D'!$S$122</f>
-        <v>4.2751477595905714</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$122</f>
+        <v>4.1350810542002696</v>
       </c>
       <c r="K7" s="5">
-        <f>'[1]Symulacja 1D'!$S$141</f>
+        <f ca="1">'[1]Symulacja 1D'!$S$141</f>
         <v>5.7964821724025022</v>
       </c>
       <c r="L7" s="6">
-        <f>'[1]Symulacja 1D'!$S$162</f>
-        <v>5.3737615914035173</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$162</f>
+        <v>4.5690435994960783</v>
       </c>
       <c r="N7" s="12">
         <v>4</v>
       </c>
       <c r="O7" s="5">
-        <f>'[1]Symulacja 1D'!$S$28</f>
-        <v>0.41027396010385908</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$28</f>
+        <v>0.40718102130568623</v>
       </c>
       <c r="P7" s="5">
-        <f>'[1]Symulacja 1D'!$S$42</f>
-        <v>0.60457886120960791</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$42</f>
+        <v>0.60249342557261587</v>
       </c>
       <c r="Q7" s="5">
-        <f>'[1]Symulacja 1D'!$S$59</f>
-        <v>1.0308939784338185</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$59</f>
+        <v>1.0126961947410311</v>
       </c>
       <c r="R7" s="5">
-        <f>'[1]Symulacja 1D'!$S$75</f>
-        <v>0.74004139884578657</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$75</f>
+        <v>0.7073316394537652</v>
       </c>
       <c r="S7" s="5">
-        <f>'[1]Symulacja 1D'!$S$91</f>
-        <v>0.81457586539492954</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$91</f>
+        <v>1.1789639208388458</v>
       </c>
       <c r="T7" s="5">
-        <f>'[1]Symulacja 1D'!$S$106</f>
-        <v>1.9318642312619458</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$106</f>
+        <v>2.4078854466610298</v>
       </c>
       <c r="U7" s="5">
-        <f>'[1]Symulacja 1D'!$S$124</f>
-        <v>2.1459610487677274</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$124</f>
+        <v>1.7962904634484194</v>
       </c>
       <c r="V7" s="5">
-        <f>'[1]Symulacja 1D'!$S$143</f>
-        <v>2.0000391056835194</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$143</f>
+        <v>1.7530252539543967</v>
       </c>
       <c r="W7" s="6">
-        <f>'[1]Symulacja 1D'!$S$164</f>
-        <v>1.9524462234226341</v>
+        <f ca="1">'[1]Symulacja 1D'!$S$164</f>
+        <v>1.6592261551583825</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
@@ -29452,79 +30553,79 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f>'[2]Symulacja 1D'!$S$26</f>
+        <f ca="1">'[2]Symulacja 1D'!$S$26</f>
         <v>0.25755941233898927</v>
       </c>
       <c r="E8" s="5">
-        <f>'[2]Symulacja 1D'!$S$40</f>
-        <v>1.0242791950945691</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$40</f>
+        <v>0.93271645679821713</v>
       </c>
       <c r="F8" s="5">
-        <f>'[2]Symulacja 1D'!$S$57</f>
+        <f ca="1">'[2]Symulacja 1D'!$S$57</f>
         <v>1.3556295539109908</v>
       </c>
       <c r="G8" s="5">
-        <f>'[2]Symulacja 1D'!$S$73</f>
+        <f ca="1">'[2]Symulacja 1D'!$S$73</f>
         <v>1.3556295539109908</v>
       </c>
       <c r="H8" s="5">
-        <f>'[2]Symulacja 1D'!$S$89</f>
-        <v>0.86702956148198318</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$89</f>
+        <v>0.88767133362427186</v>
       </c>
       <c r="I8" s="5">
-        <f>'[2]Symulacja 1D'!$S$104</f>
-        <v>3.722659115392974</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$104</f>
+        <v>3.7433008875352627</v>
       </c>
       <c r="J8" s="5">
-        <f>'[2]Symulacja 1D'!$S$122</f>
-        <v>3.722659115392974</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$122</f>
+        <v>3.7433008875352627</v>
       </c>
       <c r="K8" s="5">
-        <f>'[2]Symulacja 1D'!$S$141</f>
-        <v>5.8032462580224102</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$141</f>
+        <v>5.7636090895536221</v>
       </c>
       <c r="L8" s="6">
-        <f>'[2]Symulacja 1D'!$S$162</f>
-        <v>5.8032462580224102</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$162</f>
+        <v>5.7636090895536221</v>
       </c>
       <c r="N8" s="12">
         <v>0</v>
       </c>
       <c r="O8" s="5">
-        <f>'[2]Symulacja 1D'!$S$28</f>
-        <v>0.16997693490638127</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$28</f>
+        <v>0.16715056653126914</v>
       </c>
       <c r="P8" s="5">
-        <f>'[2]Symulacja 1D'!$S$42</f>
-        <v>0.66128993692461202</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$42</f>
+        <v>0.62722186626556531</v>
       </c>
       <c r="Q8" s="5">
-        <f>'[2]Symulacja 1D'!$S$59</f>
-        <v>0.71137665540808914</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$59</f>
+        <v>0.71283153183086467</v>
       </c>
       <c r="R8" s="5">
-        <f>'[2]Symulacja 1D'!$S$75</f>
-        <v>0.92375504128057984</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$75</f>
+        <v>0.92512995199348314</v>
       </c>
       <c r="S8" s="5">
-        <f>'[2]Symulacja 1D'!$S$91</f>
-        <v>0.59467912278591317</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$91</f>
+        <v>0.55175647939507777</v>
       </c>
       <c r="T8" s="5">
-        <f>'[2]Symulacja 1D'!$S$106</f>
-        <v>2.0590772977661662</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$106</f>
+        <v>2.0488986057679384</v>
       </c>
       <c r="U8" s="5">
-        <f>'[2]Symulacja 1D'!$S$124</f>
-        <v>1.621570103687106</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$124</f>
+        <v>1.6221779193625849</v>
       </c>
       <c r="V8" s="5">
-        <f>'[2]Symulacja 1D'!$S$143</f>
-        <v>1.597095654494481</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$143</f>
+        <v>1.6353338802345114</v>
       </c>
       <c r="W8" s="6">
-        <f>'[2]Symulacja 1D'!$S$164</f>
-        <v>2.5908660911635519</v>
+        <f ca="1">'[2]Symulacja 1D'!$S$164</f>
+        <v>2.4951576144199872</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
@@ -29533,11 +30634,11 @@
       </c>
       <c r="D9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$26</f>
-        <v>0.22572173330840428</v>
+        <v>0.23407487070028399</v>
       </c>
       <c r="E9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$40</f>
-        <v>0.81227160653034591</v>
+        <v>0.80454662980220615</v>
       </c>
       <c r="F9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$57</f>
@@ -29557,54 +30658,54 @@
       </c>
       <c r="J9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$122</f>
-        <v>3.3203387926242023</v>
+        <v>3.007583176536488</v>
       </c>
       <c r="K9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$141</f>
-        <v>5.8560418458526406</v>
+        <v>5.7996725892799272</v>
       </c>
       <c r="L9" s="6">
         <f ca="1">'[3]Symulacja 1D'!$S$162</f>
-        <v>4.2799498793542199</v>
+        <v>4.046697495918929</v>
       </c>
       <c r="N9" s="12">
         <v>-4</v>
       </c>
       <c r="O9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$28</f>
-        <v>0.17155247811021257</v>
+        <v>0.17321002015539783</v>
       </c>
       <c r="P9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$42</f>
-        <v>0.56526894684519435</v>
+        <v>0.56899481042831346</v>
       </c>
       <c r="Q9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$59</f>
-        <v>0.62602464027144633</v>
+        <v>0.63133817172272433</v>
       </c>
       <c r="R9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$75</f>
-        <v>0.93212228860539892</v>
+        <v>0.93101204650183766</v>
       </c>
       <c r="S9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$91</f>
-        <v>0.60066357399490189</v>
+        <v>0.56322706900674202</v>
       </c>
       <c r="T9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$106</f>
-        <v>2.1864631319286518</v>
+        <v>2.0975569778923888</v>
       </c>
       <c r="U9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$124</f>
-        <v>1.4806050116965355</v>
+        <v>1.4743967397337072</v>
       </c>
       <c r="V9" s="5">
         <f ca="1">'[3]Symulacja 1D'!$S$143</f>
-        <v>1.5676448492740642</v>
+        <v>1.6101104239950503</v>
       </c>
       <c r="W9" s="6">
         <f ca="1">'[3]Symulacja 1D'!$S$164</f>
-        <v>2.1742844075784311</v>
+        <v>2.1629499391565008</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
@@ -29612,79 +30713,79 @@
         <v>-8</v>
       </c>
       <c r="D10" s="5">
-        <f>'[4]Symulacja 1D'!$S$26</f>
+        <f ca="1">'[4]Symulacja 1D'!$S$26</f>
         <v>0.27623905096686685</v>
       </c>
       <c r="E10" s="5">
-        <f>'[4]Symulacja 1D'!$S$40</f>
-        <v>1.0070733845591784</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$40</f>
+        <v>0.94630410652711872</v>
       </c>
       <c r="F10" s="5">
-        <f>'[4]Symulacja 1D'!$S$57</f>
+        <f ca="1">'[4]Symulacja 1D'!$S$57</f>
         <v>1.4202763512882211</v>
       </c>
       <c r="G10" s="5">
-        <f>'[4]Symulacja 1D'!$S$73</f>
+        <f ca="1">'[4]Symulacja 1D'!$S$73</f>
         <v>1.4202763512882211</v>
       </c>
       <c r="H10" s="5">
-        <f>'[4]Symulacja 1D'!$S$89</f>
+        <f ca="1">'[4]Symulacja 1D'!$S$89</f>
         <v>0.81461607104779921</v>
       </c>
       <c r="I10" s="5">
-        <f>'[4]Symulacja 1D'!$S$104</f>
+        <f ca="1">'[4]Symulacja 1D'!$S$104</f>
         <v>3.7348924223360198</v>
       </c>
       <c r="J10" s="5">
-        <f>'[4]Symulacja 1D'!$S$122</f>
-        <v>3.5240656322087918</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$122</f>
+        <v>3.7348924223360198</v>
       </c>
       <c r="K10" s="5">
-        <f>'[4]Symulacja 1D'!$S$141</f>
-        <v>5.7552936469504505</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$141</f>
+        <v>5.8336612549081526</v>
       </c>
       <c r="L10" s="6">
-        <f>'[4]Symulacja 1D'!$S$162</f>
-        <v>4.6076988476093161</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$162</f>
+        <v>5.3324557095366103</v>
       </c>
       <c r="N10" s="12">
         <v>-8</v>
       </c>
       <c r="O10" s="5">
-        <f>'[4]Symulacja 1D'!$S$28</f>
-        <v>0.20043903827307868</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$28</f>
+        <v>0.20350119797451249</v>
       </c>
       <c r="P10" s="5">
-        <f>'[4]Symulacja 1D'!$S$42</f>
-        <v>0.65303151649569735</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$42</f>
+        <v>0.62236708841069444</v>
       </c>
       <c r="Q10" s="5">
-        <f>'[4]Symulacja 1D'!$S$59</f>
-        <v>0.82095993398041134</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$59</f>
+        <v>0.82754962126751186</v>
       </c>
       <c r="R10" s="5">
-        <f>'[4]Symulacja 1D'!$S$75</f>
-        <v>0.94022485635095465</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$75</f>
+        <v>0.93445286057318699</v>
       </c>
       <c r="S10" s="5">
-        <f>'[4]Symulacja 1D'!$S$91</f>
-        <v>0.56783577186789647</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$91</f>
+        <v>0.58551688516300726</v>
       </c>
       <c r="T10" s="5">
-        <f>'[4]Symulacja 1D'!$S$106</f>
-        <v>2.0582008490009871</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$106</f>
+        <v>2.0705676929658781</v>
       </c>
       <c r="U10" s="5">
-        <f>'[4]Symulacja 1D'!$S$124</f>
-        <v>1.5621073577830025</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$124</f>
+        <v>1.5535665554655345</v>
       </c>
       <c r="V10" s="5">
-        <f>'[4]Symulacja 1D'!$S$143</f>
-        <v>1.6153045045297778</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$143</f>
+        <v>1.6234999691680245</v>
       </c>
       <c r="W10" s="6">
-        <f>'[4]Symulacja 1D'!$S$164</f>
-        <v>2.3773160926102395</v>
+        <f ca="1">'[4]Symulacja 1D'!$S$164</f>
+        <v>2.2897046722479506</v>
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
@@ -29692,79 +30793,79 @@
         <v>-12</v>
       </c>
       <c r="D11" s="5">
-        <f>'[5]Symulacja 1D'!$S$26</f>
+        <f ca="1">'[5]Symulacja 1D'!$S$26</f>
         <v>0.21774469740559743</v>
       </c>
       <c r="E11" s="5">
-        <f>'[5]Symulacja 1D'!$S$40</f>
-        <v>0.95017987624758926</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$40</f>
+        <v>0.89797393151577376</v>
       </c>
       <c r="F11" s="5">
-        <f>'[5]Symulacja 1D'!$S$57</f>
+        <f ca="1">'[5]Symulacja 1D'!$S$57</f>
         <v>1.2941815452197245</v>
       </c>
       <c r="G11" s="5">
-        <f>'[5]Symulacja 1D'!$S$73</f>
+        <f ca="1">'[5]Symulacja 1D'!$S$73</f>
         <v>1.2941815452197245</v>
       </c>
       <c r="H11" s="5">
-        <f>'[5]Symulacja 1D'!$S$89</f>
-        <v>0.94662175172040897</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$89</f>
+        <v>0.9054684124269059</v>
       </c>
       <c r="I11" s="5">
-        <f>'[5]Symulacja 1D'!$S$104</f>
-        <v>3.7408032969401335</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$104</f>
+        <v>3.6996499576466308</v>
       </c>
       <c r="J11" s="5">
-        <f>'[5]Symulacja 1D'!$S$122</f>
-        <v>3.7408032969401335</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$122</f>
+        <v>3.6996499576466308</v>
       </c>
       <c r="K11" s="5">
-        <f>'[5]Symulacja 1D'!$S$141</f>
-        <v>5.8192439448018245</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$141</f>
+        <v>5.5965977653531844</v>
       </c>
       <c r="L11" s="6">
-        <f>'[5]Symulacja 1D'!$S$162</f>
-        <v>5.371352249158547</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$162</f>
+        <v>5.4728075534839604</v>
       </c>
       <c r="N11" s="12">
         <v>-12</v>
       </c>
       <c r="O11" s="5">
-        <f>'[5]Symulacja 1D'!$S$28</f>
-        <v>0.13746923599240807</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$28</f>
+        <v>0.14049714369322719</v>
       </c>
       <c r="P11" s="5">
-        <f>'[5]Symulacja 1D'!$S$42</f>
-        <v>0.61959430966128115</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$42</f>
+        <v>0.60801341522073704</v>
       </c>
       <c r="Q11" s="5">
-        <f>'[5]Symulacja 1D'!$S$59</f>
-        <v>0.72975053660788747</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$59</f>
+        <v>0.71293005031922652</v>
       </c>
       <c r="R11" s="5">
-        <f>'[5]Symulacja 1D'!$S$75</f>
-        <v>0.88719086064285213</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$75</f>
+        <v>0.87035996592710341</v>
       </c>
       <c r="S11" s="5">
-        <f>'[5]Symulacja 1D'!$S$91</f>
-        <v>0.55741252204453073</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$91</f>
+        <v>0.51890004370883869</v>
       </c>
       <c r="T11" s="5">
-        <f>'[5]Symulacja 1D'!$S$106</f>
-        <v>1.9867919453855212</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$106</f>
+        <v>1.9740106427387745</v>
       </c>
       <c r="U11" s="5">
-        <f>'[5]Symulacja 1D'!$S$124</f>
-        <v>1.6381874971161117</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$124</f>
+        <v>1.5500516048477111</v>
       </c>
       <c r="V11" s="5">
-        <f>'[5]Symulacja 1D'!$S$143</f>
-        <v>1.6421546956067858</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$143</f>
+        <v>1.6540131967534251</v>
       </c>
       <c r="W11" s="6">
-        <f>'[5]Symulacja 1D'!$S$164</f>
-        <v>2.1929769015530041</v>
+        <f ca="1">'[5]Symulacja 1D'!$S$164</f>
+        <v>2.3712239050777799</v>
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
@@ -29772,79 +30873,79 @@
         <v>-16</v>
       </c>
       <c r="D12" s="5">
-        <f>'[6]Symulacja 1D'!$S$26</f>
-        <v>0.27254268556440353</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$26</f>
+        <v>0.25198737700748941</v>
       </c>
       <c r="E12" s="5">
-        <f>'[6]Symulacja 1D'!$S$40</f>
-        <v>0.91331275958083147</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$40</f>
+        <v>0.89052891462924855</v>
       </c>
       <c r="F12" s="5">
-        <f>'[6]Symulacja 1D'!$S$57</f>
-        <v>1.3778379092206807</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$57</f>
+        <v>1.3572826006637668</v>
       </c>
       <c r="G12" s="5">
-        <f>'[6]Symulacja 1D'!$S$73</f>
-        <v>1.3778379092206807</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$73</f>
+        <v>1.3572826006637668</v>
       </c>
       <c r="H12" s="5">
-        <f>'[6]Symulacja 1D'!$S$89</f>
-        <v>0.74049681736179984</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$89</f>
+        <v>0.76173124268929815</v>
       </c>
       <c r="I12" s="5">
-        <f>'[6]Symulacja 1D'!$S$104</f>
+        <f ca="1">'[6]Symulacja 1D'!$S$104</f>
         <v>3.5977794180255671</v>
       </c>
       <c r="J12" s="5">
-        <f>'[6]Symulacja 1D'!$S$122</f>
+        <f ca="1">'[6]Symulacja 1D'!$S$122</f>
         <v>3.5977794180255671</v>
       </c>
       <c r="K12" s="5">
-        <f>'[6]Symulacja 1D'!$S$141</f>
-        <v>5.4648091041811888</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$141</f>
+        <v>5.7502403427912725</v>
       </c>
       <c r="L12" s="6">
-        <f>'[6]Symulacja 1D'!$S$162</f>
-        <v>5.6426250636500779</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$162</f>
+        <v>5.7687385258473007</v>
       </c>
       <c r="N12" s="12">
         <v>-16</v>
       </c>
       <c r="O12" s="5">
-        <f>'[6]Symulacja 1D'!$S$28</f>
-        <v>0.19250580338305734</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$28</f>
+        <v>0.18276952618360998</v>
       </c>
       <c r="P12" s="5">
-        <f>'[6]Symulacja 1D'!$S$42</f>
-        <v>0.58828568365318834</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$42</f>
+        <v>0.58954084603422074</v>
       </c>
       <c r="Q12" s="5">
-        <f>'[6]Symulacja 1D'!$S$59</f>
-        <v>0.69493668621642823</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$59</f>
+        <v>0.69633935426360571</v>
       </c>
       <c r="R12" s="5">
-        <f>'[6]Symulacja 1D'!$S$75</f>
-        <v>0.89210093077010888</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$75</f>
+        <v>0.87968334113302948</v>
       </c>
       <c r="S12" s="5">
-        <f>'[6]Symulacja 1D'!$S$91</f>
-        <v>0.49554537691201983</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$91</f>
+        <v>0.54240634844679125</v>
       </c>
       <c r="T12" s="5">
-        <f>'[6]Symulacja 1D'!$S$106</f>
-        <v>1.9943561971855246</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$106</f>
+        <v>1.9843549105106473</v>
       </c>
       <c r="U12" s="5">
-        <f>'[6]Symulacja 1D'!$S$124</f>
-        <v>1.547391357071588</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$124</f>
+        <v>1.7676409525821755</v>
       </c>
       <c r="V12" s="5">
-        <f>'[6]Symulacja 1D'!$S$143</f>
-        <v>1.6817115418766784</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$143</f>
+        <v>1.8863652092100021</v>
       </c>
       <c r="W12" s="6">
-        <f>'[6]Symulacja 1D'!$S$164</f>
-        <v>2.2260947479778799</v>
+        <f ca="1">'[6]Symulacja 1D'!$S$164</f>
+        <v>2.1857258688536128</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
@@ -29852,79 +30953,79 @@
         <v>-20</v>
       </c>
       <c r="D13" s="7">
-        <f>'[7]Symulacja 1D'!$S$26</f>
-        <v>0.24604404452580919</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$26</f>
+        <v>0.25467821888436415</v>
       </c>
       <c r="E13" s="7">
-        <f>'[7]Symulacja 1D'!$S$40</f>
-        <v>0.9118534357468554</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$40</f>
+        <v>1.0658858532817144</v>
       </c>
       <c r="F13" s="7">
-        <f>'[7]Symulacja 1D'!$S$57</f>
+        <f ca="1">'[7]Symulacja 1D'!$S$57</f>
         <v>1.3075237385457341</v>
       </c>
       <c r="G13" s="7">
-        <f>'[7]Symulacja 1D'!$S$73</f>
+        <f ca="1">'[7]Symulacja 1D'!$S$73</f>
         <v>1.3075237385457341</v>
       </c>
       <c r="H13" s="7">
-        <f>'[7]Symulacja 1D'!$S$89</f>
-        <v>0.84518084283289241</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$89</f>
+        <v>0.86997793417830582</v>
       </c>
       <c r="I13" s="7">
-        <f>'[7]Symulacja 1D'!$S$104</f>
+        <f ca="1">'[7]Symulacja 1D'!$S$104</f>
         <v>3.6406240012957705</v>
       </c>
       <c r="J13" s="7">
-        <f>'[7]Symulacja 1D'!$S$122</f>
+        <f ca="1">'[7]Symulacja 1D'!$S$122</f>
         <v>3.7937653786483265</v>
       </c>
       <c r="K13" s="7">
-        <f>'[7]Symulacja 1D'!$S$141</f>
-        <v>5.7314867371822835</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$141</f>
+        <v>5.517839177716521</v>
       </c>
       <c r="L13" s="8">
-        <f>'[7]Symulacja 1D'!$S$162</f>
-        <v>5.7314867371822835</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$162</f>
+        <v>5.517839177716521</v>
       </c>
       <c r="N13" s="13">
         <v>-20</v>
       </c>
       <c r="O13" s="7">
-        <f>'[7]Symulacja 1D'!$S$28</f>
-        <v>0.15518579966957574</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$28</f>
+        <v>0.14769878402868353</v>
       </c>
       <c r="P13" s="7">
-        <f>'[7]Symulacja 1D'!$S$42</f>
-        <v>0.60655598819638146</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$42</f>
+        <v>0.66568712478301462</v>
       </c>
       <c r="Q13" s="7">
-        <f>'[7]Symulacja 1D'!$S$59</f>
-        <v>0.73090406397545482</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$59</f>
+        <v>0.78409834633242992</v>
       </c>
       <c r="R13" s="7">
-        <f>'[7]Symulacja 1D'!$S$75</f>
-        <v>0.88190996756106865</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$75</f>
+        <v>0.85686295076200325</v>
       </c>
       <c r="S13" s="7">
-        <f>'[7]Symulacja 1D'!$S$91</f>
-        <v>0.55359635451489031</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$91</f>
+        <v>0.55556396348289971</v>
       </c>
       <c r="T13" s="7">
-        <f>'[7]Symulacja 1D'!$S$106</f>
-        <v>1.7391809129200821</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$106</f>
+        <v>1.6675497439282654</v>
       </c>
       <c r="U13" s="7">
-        <f>'[7]Symulacja 1D'!$S$124</f>
-        <v>2.0401907260831464</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$124</f>
+        <v>1.9746341886895042</v>
       </c>
       <c r="V13" s="7">
-        <f>'[7]Symulacja 1D'!$S$143</f>
-        <v>2.1549820255703822</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$143</f>
+        <v>2.1132336883461522</v>
       </c>
       <c r="W13" s="8">
-        <f>'[7]Symulacja 1D'!$S$164</f>
-        <v>1.9231132024765092</v>
+        <f ca="1">'[7]Symulacja 1D'!$S$164</f>
+        <v>1.9522083700586794</v>
       </c>
     </row>
     <row r="20" spans="22:22" x14ac:dyDescent="0.25">
@@ -29967,7 +31068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
@@ -30585,7 +31686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
